--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_13_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_13_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2017135.298356055</v>
+        <v>1967224.770782079</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10954768.32767164</v>
+        <v>10864165.00537001</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7810665.347718581</v>
+        <v>7866131.194356029</v>
       </c>
     </row>
     <row r="11">
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>221.3057365571169</v>
+        <v>213.4981318212546</v>
       </c>
       <c r="C11" t="n">
-        <v>185.6038971641281</v>
+        <v>177.7962924282659</v>
       </c>
       <c r="D11" t="n">
-        <v>169.7768663642951</v>
+        <v>161.9692616284328</v>
       </c>
       <c r="E11" t="n">
-        <v>215.3748310881183</v>
+        <v>207.5672263522561</v>
       </c>
       <c r="F11" t="n">
-        <v>259.5667053624761</v>
+        <v>251.7591006266139</v>
       </c>
       <c r="G11" t="n">
-        <v>287.506416273026</v>
+        <v>279.7412543114274</v>
       </c>
       <c r="H11" t="n">
-        <v>214.0518230687174</v>
+        <v>206.6788853947823</v>
       </c>
       <c r="I11" t="n">
-        <v>122.7181255712402</v>
+        <v>116.5467958901757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>79.55549857579697</v>
+        <v>74.41398975877109</v>
       </c>
       <c r="S11" t="n">
-        <v>102.457387584746</v>
+        <v>95.61694756741566</v>
       </c>
       <c r="T11" t="n">
-        <v>80.16862639719182</v>
+        <v>72.54681490566848</v>
       </c>
       <c r="U11" t="n">
-        <v>111.0084511123393</v>
+        <v>103.2042417984182</v>
       </c>
       <c r="V11" t="n">
-        <v>171.3642852520221</v>
+        <v>163.5566805161598</v>
       </c>
       <c r="W11" t="n">
-        <v>180.1483647303706</v>
+        <v>172.3407599945083</v>
       </c>
       <c r="X11" t="n">
-        <v>204.6047424524584</v>
+        <v>196.7971377165961</v>
       </c>
       <c r="Y11" t="n">
-        <v>238.1457143679953</v>
+        <v>230.338109632133</v>
       </c>
     </row>
     <row r="12">
@@ -23336,25 +23336,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>58.69573772942869</v>
+        <v>50.88813299356642</v>
       </c>
       <c r="C12" t="n">
-        <v>77.91747860268325</v>
+        <v>70.10987386682098</v>
       </c>
       <c r="D12" t="n">
-        <v>43.89721840596548</v>
+        <v>36.0896136701032</v>
       </c>
       <c r="E12" t="n">
-        <v>61.07235225257685</v>
+        <v>53.26474751671458</v>
       </c>
       <c r="F12" t="n">
-        <v>47.27982323074647</v>
+        <v>39.4722184948842</v>
       </c>
       <c r="G12" t="n">
-        <v>32.34671964857773</v>
+        <v>24.56182379896414</v>
       </c>
       <c r="H12" t="n">
-        <v>8.679216143816291</v>
+        <v>1.090931440934742</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.04962389191988</v>
+        <v>22.65196211104171</v>
       </c>
       <c r="S12" t="n">
-        <v>81.67253194388292</v>
+        <v>74.28673481005214</v>
       </c>
       <c r="T12" t="n">
-        <v>103.258435568778</v>
+        <v>95.54236358055847</v>
       </c>
       <c r="U12" t="n">
-        <v>121.1075727167899</v>
+        <v>113.3014619866019</v>
       </c>
       <c r="V12" t="n">
-        <v>118.2330929851758</v>
+        <v>110.4254882493135</v>
       </c>
       <c r="W12" t="n">
-        <v>157.4719965254058</v>
+        <v>149.6643917895436</v>
       </c>
       <c r="X12" t="n">
-        <v>101.6929781699556</v>
+        <v>93.88537343409331</v>
       </c>
       <c r="Y12" t="n">
-        <v>119.1074078367601</v>
+        <v>111.2998031008979</v>
       </c>
     </row>
     <row r="13">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36.67530055477249</v>
+        <v>28.86769581891022</v>
       </c>
       <c r="C13" t="n">
-        <v>28.13962837576335</v>
+        <v>20.33202363990108</v>
       </c>
       <c r="D13" t="n">
-        <v>1.999238702034944</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,22 +23430,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>32.70562376171893</v>
+        <v>24.91705739324662</v>
       </c>
       <c r="H13" t="n">
-        <v>31.68912833226969</v>
+        <v>24.05079199011095</v>
       </c>
       <c r="I13" t="n">
-        <v>32.12865612609571</v>
+        <v>24.89358702046989</v>
       </c>
       <c r="J13" t="n">
-        <v>1.898951562253473</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>3.041122909053229e-12</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -23460,31 +23460,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.26139559558104</v>
+        <v>23.04799451452772</v>
       </c>
       <c r="R13" t="n">
-        <v>94.99048590255256</v>
+        <v>88.03891539497009</v>
       </c>
       <c r="S13" t="n">
-        <v>111.9681817984963</v>
+        <v>104.492363883421</v>
       </c>
       <c r="T13" t="n">
-        <v>77.32411374282964</v>
+        <v>69.59785475854268</v>
       </c>
       <c r="U13" t="n">
-        <v>156.0719491619994</v>
+        <v>148.2653828825403</v>
       </c>
       <c r="V13" t="n">
-        <v>95.30605283754704</v>
+        <v>87.49844810168477</v>
       </c>
       <c r="W13" t="n">
-        <v>160.419637657476</v>
+        <v>152.6120329216137</v>
       </c>
       <c r="X13" t="n">
-        <v>78.07814489873201</v>
+        <v>70.27054016286974</v>
       </c>
       <c r="Y13" t="n">
-        <v>77.6202435517562</v>
+        <v>69.81263881589393</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>221.3057365571169</v>
+        <v>213.4981318212546</v>
       </c>
       <c r="C14" t="n">
-        <v>185.6038971641281</v>
+        <v>177.7962924282659</v>
       </c>
       <c r="D14" t="n">
-        <v>169.7768663642951</v>
+        <v>161.9692616284328</v>
       </c>
       <c r="E14" t="n">
-        <v>215.3748310881183</v>
+        <v>207.5672263522561</v>
       </c>
       <c r="F14" t="n">
-        <v>259.5667053624761</v>
+        <v>251.7591006266139</v>
       </c>
       <c r="G14" t="n">
-        <v>287.506416273026</v>
+        <v>279.7412543114274</v>
       </c>
       <c r="H14" t="n">
-        <v>214.0518230687174</v>
+        <v>206.6788853947823</v>
       </c>
       <c r="I14" t="n">
-        <v>122.7181255712402</v>
+        <v>116.5467958901757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>79.55549857579695</v>
+        <v>74.41398975877109</v>
       </c>
       <c r="S14" t="n">
-        <v>102.457387584746</v>
+        <v>95.61694756741566</v>
       </c>
       <c r="T14" t="n">
-        <v>80.16862639719182</v>
+        <v>72.54681490566848</v>
       </c>
       <c r="U14" t="n">
-        <v>111.0084511123393</v>
+        <v>103.2042417984182</v>
       </c>
       <c r="V14" t="n">
-        <v>171.3642852520221</v>
+        <v>163.5566805161598</v>
       </c>
       <c r="W14" t="n">
-        <v>180.1483647303706</v>
+        <v>172.3407599945083</v>
       </c>
       <c r="X14" t="n">
-        <v>204.6047424524584</v>
+        <v>196.7971377165961</v>
       </c>
       <c r="Y14" t="n">
-        <v>238.1457143679953</v>
+        <v>230.338109632133</v>
       </c>
     </row>
     <row r="15">
@@ -23573,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>58.69573772942869</v>
+        <v>50.88813299356642</v>
       </c>
       <c r="C15" t="n">
-        <v>77.91747860268325</v>
+        <v>70.10987386682098</v>
       </c>
       <c r="D15" t="n">
-        <v>43.89721840596548</v>
+        <v>36.0896136701032</v>
       </c>
       <c r="E15" t="n">
-        <v>61.07235225257685</v>
+        <v>53.26474751671458</v>
       </c>
       <c r="F15" t="n">
-        <v>47.27982323074647</v>
+        <v>39.4722184948842</v>
       </c>
       <c r="G15" t="n">
-        <v>32.34671964857773</v>
+        <v>24.56182379896414</v>
       </c>
       <c r="H15" t="n">
-        <v>8.679216143816291</v>
+        <v>1.090931440934742</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.04962389191985</v>
+        <v>22.65196211104171</v>
       </c>
       <c r="S15" t="n">
-        <v>81.67253194388292</v>
+        <v>74.28673481005214</v>
       </c>
       <c r="T15" t="n">
-        <v>103.258435568778</v>
+        <v>95.54236358055847</v>
       </c>
       <c r="U15" t="n">
-        <v>121.1075727167899</v>
+        <v>113.3014619866019</v>
       </c>
       <c r="V15" t="n">
-        <v>118.2330929851758</v>
+        <v>110.4254882493135</v>
       </c>
       <c r="W15" t="n">
-        <v>157.4719965254058</v>
+        <v>149.6643917895436</v>
       </c>
       <c r="X15" t="n">
-        <v>101.6929781699556</v>
+        <v>93.88537343409331</v>
       </c>
       <c r="Y15" t="n">
-        <v>119.1074078367601</v>
+        <v>111.2998031008979</v>
       </c>
     </row>
     <row r="16">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>36.67530055477249</v>
+        <v>28.86769581891022</v>
       </c>
       <c r="C16" t="n">
-        <v>28.13962837576335</v>
+        <v>20.33202363990108</v>
       </c>
       <c r="D16" t="n">
-        <v>1.999238702034944</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,16 +23667,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>32.70562376171893</v>
+        <v>24.91705739324662</v>
       </c>
       <c r="H16" t="n">
-        <v>31.68912833226969</v>
+        <v>24.05079199011095</v>
       </c>
       <c r="I16" t="n">
-        <v>32.12865612609571</v>
+        <v>24.89358702046989</v>
       </c>
       <c r="J16" t="n">
-        <v>1.898951562253473</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,31 +23697,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.26139559558101</v>
+        <v>23.04799451452772</v>
       </c>
       <c r="R16" t="n">
-        <v>94.99048590255455</v>
+        <v>88.03891539497009</v>
       </c>
       <c r="S16" t="n">
-        <v>111.9681817984963</v>
+        <v>104.492363883421</v>
       </c>
       <c r="T16" t="n">
-        <v>77.32411374282964</v>
+        <v>69.59785475854268</v>
       </c>
       <c r="U16" t="n">
-        <v>156.0719491619994</v>
+        <v>148.2653828825403</v>
       </c>
       <c r="V16" t="n">
-        <v>95.30605283754704</v>
+        <v>87.49844810168477</v>
       </c>
       <c r="W16" t="n">
-        <v>160.419637657476</v>
+        <v>152.6120329216137</v>
       </c>
       <c r="X16" t="n">
-        <v>78.07814489873201</v>
+        <v>70.27054016286974</v>
       </c>
       <c r="Y16" t="n">
-        <v>77.6202435517562</v>
+        <v>69.81263881589393</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>221.3057365571169</v>
+        <v>213.4981318212546</v>
       </c>
       <c r="C17" t="n">
-        <v>185.6038971641281</v>
+        <v>177.7962924282659</v>
       </c>
       <c r="D17" t="n">
-        <v>169.7768663642951</v>
+        <v>161.9692616284328</v>
       </c>
       <c r="E17" t="n">
-        <v>215.3748310881183</v>
+        <v>207.5672263522561</v>
       </c>
       <c r="F17" t="n">
-        <v>259.5667053624761</v>
+        <v>251.7591006266139</v>
       </c>
       <c r="G17" t="n">
-        <v>287.506416273026</v>
+        <v>279.7412543114274</v>
       </c>
       <c r="H17" t="n">
-        <v>214.0518230687174</v>
+        <v>206.6788853947823</v>
       </c>
       <c r="I17" t="n">
-        <v>122.7181255712402</v>
+        <v>116.5467958901757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>79.55549857579697</v>
+        <v>74.41398975877109</v>
       </c>
       <c r="S17" t="n">
-        <v>102.457387584746</v>
+        <v>95.61694756741566</v>
       </c>
       <c r="T17" t="n">
-        <v>80.16862639719182</v>
+        <v>72.54681490566848</v>
       </c>
       <c r="U17" t="n">
-        <v>111.0084511123393</v>
+        <v>103.2042417984182</v>
       </c>
       <c r="V17" t="n">
-        <v>171.3642852520221</v>
+        <v>163.5566805161598</v>
       </c>
       <c r="W17" t="n">
-        <v>180.1483647303706</v>
+        <v>172.3407599945083</v>
       </c>
       <c r="X17" t="n">
-        <v>204.6047424524584</v>
+        <v>196.7971377165961</v>
       </c>
       <c r="Y17" t="n">
-        <v>238.1457143679953</v>
+        <v>230.338109632133</v>
       </c>
     </row>
     <row r="18">
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>58.69573772942869</v>
+        <v>50.88813299356642</v>
       </c>
       <c r="C18" t="n">
-        <v>77.91747860268325</v>
+        <v>70.10987386682098</v>
       </c>
       <c r="D18" t="n">
-        <v>43.89721840596548</v>
+        <v>36.0896136701032</v>
       </c>
       <c r="E18" t="n">
-        <v>61.07235225257685</v>
+        <v>53.26474751671458</v>
       </c>
       <c r="F18" t="n">
-        <v>47.27982323074647</v>
+        <v>39.4722184948842</v>
       </c>
       <c r="G18" t="n">
-        <v>32.34671964857773</v>
+        <v>24.56182379896414</v>
       </c>
       <c r="H18" t="n">
-        <v>8.679216143816291</v>
+        <v>1.090931440934742</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.04962389191988</v>
+        <v>22.65196211104171</v>
       </c>
       <c r="S18" t="n">
-        <v>81.67253194388292</v>
+        <v>74.28673481005214</v>
       </c>
       <c r="T18" t="n">
-        <v>103.258435568778</v>
+        <v>95.54236358055847</v>
       </c>
       <c r="U18" t="n">
-        <v>121.1075727167899</v>
+        <v>113.3014619866019</v>
       </c>
       <c r="V18" t="n">
-        <v>118.2330929851758</v>
+        <v>110.4254882493135</v>
       </c>
       <c r="W18" t="n">
-        <v>157.4719965254058</v>
+        <v>149.6643917895436</v>
       </c>
       <c r="X18" t="n">
-        <v>101.6929781699556</v>
+        <v>93.88537343409331</v>
       </c>
       <c r="Y18" t="n">
-        <v>119.1074078367601</v>
+        <v>111.2998031008979</v>
       </c>
     </row>
     <row r="19">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>36.67530055477249</v>
+        <v>28.86769581891022</v>
       </c>
       <c r="C19" t="n">
-        <v>28.13962837576335</v>
+        <v>20.33202363990108</v>
       </c>
       <c r="D19" t="n">
-        <v>1.999238702034944</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,16 +23904,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>32.70562376171893</v>
+        <v>24.91705739324662</v>
       </c>
       <c r="H19" t="n">
-        <v>31.68912833226969</v>
+        <v>24.05079199011095</v>
       </c>
       <c r="I19" t="n">
-        <v>32.12865612609571</v>
+        <v>24.89358702046989</v>
       </c>
       <c r="J19" t="n">
-        <v>1.898951562253473</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,31 +23934,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.26139559558104</v>
+        <v>23.04799451452772</v>
       </c>
       <c r="R19" t="n">
-        <v>94.99048590255256</v>
+        <v>88.03891539497009</v>
       </c>
       <c r="S19" t="n">
-        <v>111.9681817984963</v>
+        <v>104.492363883421</v>
       </c>
       <c r="T19" t="n">
-        <v>77.32411374282964</v>
+        <v>69.59785475854268</v>
       </c>
       <c r="U19" t="n">
-        <v>156.0719491619994</v>
+        <v>148.2653828825403</v>
       </c>
       <c r="V19" t="n">
-        <v>95.30605283754704</v>
+        <v>87.49844810168477</v>
       </c>
       <c r="W19" t="n">
-        <v>160.419637657476</v>
+        <v>152.6120329216137</v>
       </c>
       <c r="X19" t="n">
-        <v>78.07814489873201</v>
+        <v>70.27054016286974</v>
       </c>
       <c r="Y19" t="n">
-        <v>77.6202435517562</v>
+        <v>69.81263881589393</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>221.3057365571169</v>
+        <v>213.4981318212546</v>
       </c>
       <c r="C20" t="n">
-        <v>185.6038971641281</v>
+        <v>177.7962924282659</v>
       </c>
       <c r="D20" t="n">
-        <v>169.7768663642951</v>
+        <v>161.9692616284328</v>
       </c>
       <c r="E20" t="n">
-        <v>215.3748310881183</v>
+        <v>207.5672263522561</v>
       </c>
       <c r="F20" t="n">
-        <v>259.5667053624761</v>
+        <v>251.7591006266139</v>
       </c>
       <c r="G20" t="n">
-        <v>287.506416273026</v>
+        <v>279.7412543114274</v>
       </c>
       <c r="H20" t="n">
-        <v>214.0518230687174</v>
+        <v>206.6788853947823</v>
       </c>
       <c r="I20" t="n">
-        <v>122.7181255712402</v>
+        <v>116.5467958901757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>79.55549857579697</v>
+        <v>74.41398975877109</v>
       </c>
       <c r="S20" t="n">
-        <v>102.457387584746</v>
+        <v>95.61694756741566</v>
       </c>
       <c r="T20" t="n">
-        <v>80.16862639719182</v>
+        <v>72.54681490566848</v>
       </c>
       <c r="U20" t="n">
-        <v>111.0084511123393</v>
+        <v>103.2042417984182</v>
       </c>
       <c r="V20" t="n">
-        <v>171.3642852520221</v>
+        <v>163.5566805161598</v>
       </c>
       <c r="W20" t="n">
-        <v>180.1483647303706</v>
+        <v>172.3407599945083</v>
       </c>
       <c r="X20" t="n">
-        <v>204.6047424524584</v>
+        <v>196.7971377165961</v>
       </c>
       <c r="Y20" t="n">
-        <v>238.1457143679953</v>
+        <v>230.338109632133</v>
       </c>
     </row>
     <row r="21">
@@ -24047,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>58.69573772942869</v>
+        <v>50.88813299356642</v>
       </c>
       <c r="C21" t="n">
-        <v>77.91747860268325</v>
+        <v>70.10987386682098</v>
       </c>
       <c r="D21" t="n">
-        <v>43.89721840596548</v>
+        <v>36.0896136701032</v>
       </c>
       <c r="E21" t="n">
-        <v>61.07235225257685</v>
+        <v>53.26474751671458</v>
       </c>
       <c r="F21" t="n">
-        <v>47.27982323074647</v>
+        <v>39.4722184948842</v>
       </c>
       <c r="G21" t="n">
-        <v>32.34671964857773</v>
+        <v>24.56182379896414</v>
       </c>
       <c r="H21" t="n">
-        <v>8.679216143816291</v>
+        <v>1.090931440934742</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>29.04962389191988</v>
+        <v>22.65196211104171</v>
       </c>
       <c r="S21" t="n">
-        <v>81.67253194388292</v>
+        <v>74.28673481005214</v>
       </c>
       <c r="T21" t="n">
-        <v>103.258435568778</v>
+        <v>95.54236358055847</v>
       </c>
       <c r="U21" t="n">
-        <v>121.1075727167899</v>
+        <v>113.3014619866019</v>
       </c>
       <c r="V21" t="n">
-        <v>118.2330929851758</v>
+        <v>110.4254882493135</v>
       </c>
       <c r="W21" t="n">
-        <v>157.4719965254058</v>
+        <v>149.6643917895436</v>
       </c>
       <c r="X21" t="n">
-        <v>101.6929781699556</v>
+        <v>93.88537343409331</v>
       </c>
       <c r="Y21" t="n">
-        <v>119.1074078367601</v>
+        <v>111.2998031008979</v>
       </c>
     </row>
     <row r="22">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>36.67530055477249</v>
+        <v>28.86769581891022</v>
       </c>
       <c r="C22" t="n">
-        <v>28.13962837576335</v>
+        <v>20.33202363990108</v>
       </c>
       <c r="D22" t="n">
-        <v>1.999238702038895</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,16 +24141,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>32.70562376171893</v>
+        <v>24.91705739324662</v>
       </c>
       <c r="H22" t="n">
-        <v>31.68912833226969</v>
+        <v>24.05079199011095</v>
       </c>
       <c r="I22" t="n">
-        <v>32.12865612609571</v>
+        <v>24.89358702046989</v>
       </c>
       <c r="J22" t="n">
-        <v>1.898951562253473</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24165,37 +24165,37 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>3.183231456205249e-12</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.26139559558104</v>
+        <v>23.04799451452772</v>
       </c>
       <c r="R22" t="n">
-        <v>94.99048590255256</v>
+        <v>88.03891539497009</v>
       </c>
       <c r="S22" t="n">
-        <v>111.9681817984963</v>
+        <v>104.492363883421</v>
       </c>
       <c r="T22" t="n">
-        <v>77.32411374282964</v>
+        <v>69.59785475854268</v>
       </c>
       <c r="U22" t="n">
-        <v>156.0719491619994</v>
+        <v>148.2653828825403</v>
       </c>
       <c r="V22" t="n">
-        <v>95.30605283754704</v>
+        <v>87.49844810168477</v>
       </c>
       <c r="W22" t="n">
-        <v>160.419637657476</v>
+        <v>152.6120329216137</v>
       </c>
       <c r="X22" t="n">
-        <v>78.07814489873201</v>
+        <v>70.27054016286974</v>
       </c>
       <c r="Y22" t="n">
-        <v>77.6202435517562</v>
+        <v>69.81263881589393</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>221.3057365571169</v>
+        <v>213.4981318212546</v>
       </c>
       <c r="C23" t="n">
-        <v>185.6038971641281</v>
+        <v>177.7962924282659</v>
       </c>
       <c r="D23" t="n">
-        <v>169.7768663642951</v>
+        <v>161.9692616284328</v>
       </c>
       <c r="E23" t="n">
-        <v>215.3748310881183</v>
+        <v>207.5672263522561</v>
       </c>
       <c r="F23" t="n">
-        <v>259.5667053624761</v>
+        <v>251.7591006266139</v>
       </c>
       <c r="G23" t="n">
-        <v>287.506416273026</v>
+        <v>279.7412543114274</v>
       </c>
       <c r="H23" t="n">
-        <v>214.0518230687174</v>
+        <v>206.6788853947823</v>
       </c>
       <c r="I23" t="n">
-        <v>122.7181255712402</v>
+        <v>116.5467958901757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>79.55549857579697</v>
+        <v>74.41398975877109</v>
       </c>
       <c r="S23" t="n">
-        <v>102.457387584746</v>
+        <v>95.61694756741566</v>
       </c>
       <c r="T23" t="n">
-        <v>80.16862639719182</v>
+        <v>72.54681490566848</v>
       </c>
       <c r="U23" t="n">
-        <v>111.0084511123393</v>
+        <v>103.2042417984182</v>
       </c>
       <c r="V23" t="n">
-        <v>171.3642852520221</v>
+        <v>163.5566805161598</v>
       </c>
       <c r="W23" t="n">
-        <v>180.1483647303706</v>
+        <v>172.3407599945083</v>
       </c>
       <c r="X23" t="n">
-        <v>204.6047424524584</v>
+        <v>196.7971377165961</v>
       </c>
       <c r="Y23" t="n">
-        <v>238.1457143679953</v>
+        <v>230.338109632133</v>
       </c>
     </row>
     <row r="24">
@@ -24284,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>58.69573772942869</v>
+        <v>50.88813299356642</v>
       </c>
       <c r="C24" t="n">
-        <v>77.91747860268325</v>
+        <v>70.10987386682098</v>
       </c>
       <c r="D24" t="n">
-        <v>43.89721840596548</v>
+        <v>36.0896136701032</v>
       </c>
       <c r="E24" t="n">
-        <v>61.07235225257685</v>
+        <v>53.26474751671458</v>
       </c>
       <c r="F24" t="n">
-        <v>47.27982323074647</v>
+        <v>39.4722184948842</v>
       </c>
       <c r="G24" t="n">
-        <v>32.34671964857773</v>
+        <v>24.56182379896414</v>
       </c>
       <c r="H24" t="n">
-        <v>8.679216143816291</v>
+        <v>1.090931440934742</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>29.04962389191988</v>
+        <v>22.65196211104171</v>
       </c>
       <c r="S24" t="n">
-        <v>81.67253194388292</v>
+        <v>74.28673481005214</v>
       </c>
       <c r="T24" t="n">
-        <v>103.258435568778</v>
+        <v>95.54236358055847</v>
       </c>
       <c r="U24" t="n">
-        <v>121.1075727167899</v>
+        <v>113.3014619866019</v>
       </c>
       <c r="V24" t="n">
-        <v>118.2330929851758</v>
+        <v>110.4254882493135</v>
       </c>
       <c r="W24" t="n">
-        <v>157.4719965254058</v>
+        <v>149.6643917895436</v>
       </c>
       <c r="X24" t="n">
-        <v>101.6929781699556</v>
+        <v>93.88537343409331</v>
       </c>
       <c r="Y24" t="n">
-        <v>119.1074078367601</v>
+        <v>111.2998031008979</v>
       </c>
     </row>
     <row r="25">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>36.67530055477249</v>
+        <v>28.86769581891022</v>
       </c>
       <c r="C25" t="n">
-        <v>28.13962837576335</v>
+        <v>20.33202363990108</v>
       </c>
       <c r="D25" t="n">
-        <v>1.999238702034944</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,16 +24378,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>32.70562376171893</v>
+        <v>24.91705739324662</v>
       </c>
       <c r="H25" t="n">
-        <v>31.68912833226969</v>
+        <v>24.05079199011095</v>
       </c>
       <c r="I25" t="n">
-        <v>32.12865612609571</v>
+        <v>24.89358702046989</v>
       </c>
       <c r="J25" t="n">
-        <v>1.898951562253473</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,31 +24408,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.26139559558104</v>
+        <v>23.04799451452772</v>
       </c>
       <c r="R25" t="n">
-        <v>94.99048590255256</v>
+        <v>88.03891539497009</v>
       </c>
       <c r="S25" t="n">
-        <v>111.9681817984963</v>
+        <v>104.492363883421</v>
       </c>
       <c r="T25" t="n">
-        <v>77.32411374282964</v>
+        <v>69.59785475854268</v>
       </c>
       <c r="U25" t="n">
-        <v>156.0719491619994</v>
+        <v>148.2653828825403</v>
       </c>
       <c r="V25" t="n">
-        <v>95.30605283754704</v>
+        <v>87.49844810168477</v>
       </c>
       <c r="W25" t="n">
-        <v>160.419637657476</v>
+        <v>152.6120329216137</v>
       </c>
       <c r="X25" t="n">
-        <v>78.07814489873201</v>
+        <v>70.27054016286974</v>
       </c>
       <c r="Y25" t="n">
-        <v>77.6202435517562</v>
+        <v>69.81263881589393</v>
       </c>
     </row>
     <row r="26">
@@ -24442,37 +24442,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.4223949119972</v>
+        <v>275.738405598755</v>
       </c>
       <c r="C26" t="n">
-        <v>299.7205555190085</v>
+        <v>240.0365662057662</v>
       </c>
       <c r="D26" t="n">
-        <v>283.8935247191754</v>
+        <v>224.2095354059332</v>
       </c>
       <c r="E26" t="n">
-        <v>329.4914894429986</v>
+        <v>269.8075001297564</v>
       </c>
       <c r="F26" t="n">
-        <v>373.6833637173564</v>
+        <v>313.9993744041142</v>
       </c>
       <c r="G26" t="n">
-        <v>401.6230746279064</v>
+        <v>341.9815280889278</v>
       </c>
       <c r="H26" t="n">
-        <v>328.1684814235978</v>
+        <v>268.9191591722827</v>
       </c>
       <c r="I26" t="n">
-        <v>236.8347839261205</v>
+        <v>178.7870696676761</v>
       </c>
       <c r="J26" t="n">
-        <v>90.52468197276207</v>
+        <v>34.44297007167577</v>
       </c>
       <c r="K26" t="n">
-        <v>63.73508623579468</v>
+        <v>9.449976969286922</v>
       </c>
       <c r="L26" t="n">
-        <v>23.97065888119968</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -24481,37 +24481,37 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>14.7375564088087</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>63.03597663536767</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>108.2969608716688</v>
+        <v>53.19631369768584</v>
       </c>
       <c r="R26" t="n">
-        <v>193.6721569306773</v>
+        <v>136.6542635362715</v>
       </c>
       <c r="S26" t="n">
-        <v>216.5740459396263</v>
+        <v>157.857221344916</v>
       </c>
       <c r="T26" t="n">
-        <v>194.2852847520721</v>
+        <v>137.3247276619165</v>
       </c>
       <c r="U26" t="n">
-        <v>225.1251094672197</v>
+        <v>165.4445155759185</v>
       </c>
       <c r="V26" t="n">
-        <v>285.4809436069024</v>
+        <v>225.7969542936602</v>
       </c>
       <c r="W26" t="n">
-        <v>294.265023085251</v>
+        <v>234.5810337720087</v>
       </c>
       <c r="X26" t="n">
-        <v>318.7214008073387</v>
+        <v>259.0374114940965</v>
       </c>
       <c r="Y26" t="n">
-        <v>352.2623727228756</v>
+        <v>292.5783834096334</v>
       </c>
     </row>
     <row r="27">
@@ -24521,34 +24521,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>172.812396084309</v>
+        <v>113.1284067710668</v>
       </c>
       <c r="C27" t="n">
-        <v>192.0341369575636</v>
+        <v>132.3501476443213</v>
       </c>
       <c r="D27" t="n">
-        <v>158.0138767608458</v>
+        <v>98.32988744760357</v>
       </c>
       <c r="E27" t="n">
-        <v>175.1890106074572</v>
+        <v>115.5050212942149</v>
       </c>
       <c r="F27" t="n">
-        <v>161.3964815856268</v>
+        <v>101.7124922723846</v>
       </c>
       <c r="G27" t="n">
-        <v>146.463378003458</v>
+        <v>86.8020975764645</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7958744986966</v>
+        <v>63.3312052184351</v>
       </c>
       <c r="I27" t="n">
-        <v>99.70684693472211</v>
+        <v>40.80472059100696</v>
       </c>
       <c r="J27" t="n">
-        <v>75.60462142772667</v>
+        <v>18.06612386309371</v>
       </c>
       <c r="K27" t="n">
-        <v>17.06732088504438</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24566,31 +24566,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>59.1298022129485</v>
+        <v>2.344582309275211</v>
       </c>
       <c r="R27" t="n">
-        <v>143.1662822468002</v>
+        <v>84.89223588854207</v>
       </c>
       <c r="S27" t="n">
-        <v>195.7891902987632</v>
+        <v>136.5270085875525</v>
       </c>
       <c r="T27" t="n">
-        <v>217.3750939236583</v>
+        <v>157.7826373580588</v>
       </c>
       <c r="U27" t="n">
-        <v>235.2242310716702</v>
+        <v>175.5417357641022</v>
       </c>
       <c r="V27" t="n">
-        <v>232.3497513400561</v>
+        <v>172.6657620268139</v>
       </c>
       <c r="W27" t="n">
-        <v>271.5886548802862</v>
+        <v>211.9046655670439</v>
       </c>
       <c r="X27" t="n">
-        <v>215.8096365248359</v>
+        <v>156.1256472115937</v>
       </c>
       <c r="Y27" t="n">
-        <v>233.2240661916404</v>
+        <v>173.5400768783982</v>
       </c>
     </row>
     <row r="28">
@@ -24603,73 +24603,73 @@
         <v>173.5391974632748</v>
       </c>
       <c r="C28" t="n">
-        <v>142.2562867306437</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D28" t="n">
-        <v>138.8631356105373</v>
+        <v>56.43190774367304</v>
       </c>
       <c r="E28" t="n">
-        <v>110.1701859271966</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F28" t="n">
-        <v>126.9717133511</v>
+        <v>44.54048548423575</v>
       </c>
       <c r="G28" t="n">
-        <v>169.5695206702212</v>
+        <v>87.15733117074699</v>
       </c>
       <c r="H28" t="n">
-        <v>145.80578668715</v>
+        <v>86.29106576761131</v>
       </c>
       <c r="I28" t="n">
-        <v>146.245314480976</v>
+        <v>87.13386079797026</v>
       </c>
       <c r="J28" t="n">
-        <v>116.0156099171338</v>
+        <v>57.67763317836223</v>
       </c>
       <c r="K28" t="n">
-        <v>75.80399784871983</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L28" t="n">
-        <v>54.27661477955434</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>75.86266198249908</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>61.16136330339108</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>89.83460966937352</v>
+        <v>10.09436849504755</v>
       </c>
       <c r="P28" t="n">
-        <v>85.41037841027664</v>
+        <v>28.02899309481734</v>
       </c>
       <c r="Q28" t="n">
-        <v>143.3780539504614</v>
+        <v>167.7194961588923</v>
       </c>
       <c r="R28" t="n">
-        <v>209.1071442574329</v>
+        <v>232.7104170393347</v>
       </c>
       <c r="S28" t="n">
-        <v>248.8320787069986</v>
+        <v>249.1638655277856</v>
       </c>
       <c r="T28" t="n">
-        <v>191.44077209771</v>
+        <v>131.838128536043</v>
       </c>
       <c r="U28" t="n">
-        <v>270.1886075168798</v>
+        <v>210.5056566600406</v>
       </c>
       <c r="V28" t="n">
-        <v>209.4227111924274</v>
+        <v>232.1699497460494</v>
       </c>
       <c r="W28" t="n">
-        <v>274.5362960123563</v>
+        <v>214.8523066991141</v>
       </c>
       <c r="X28" t="n">
-        <v>192.1948032536123</v>
+        <v>214.9420418072343</v>
       </c>
       <c r="Y28" t="n">
-        <v>191.7369019066365</v>
+        <v>132.0529125933943</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>221.3057365571169</v>
+        <v>222.3227200643289</v>
       </c>
       <c r="C29" t="n">
-        <v>185.6038971641282</v>
+        <v>186.6208806713402</v>
       </c>
       <c r="D29" t="n">
-        <v>169.7768663642951</v>
+        <v>170.7938498715071</v>
       </c>
       <c r="E29" t="n">
-        <v>215.3748310881184</v>
+        <v>216.3918145953303</v>
       </c>
       <c r="F29" t="n">
-        <v>259.5667053624762</v>
+        <v>260.5836888696882</v>
       </c>
       <c r="G29" t="n">
-        <v>287.5064162730261</v>
+        <v>288.5658425545017</v>
       </c>
       <c r="H29" t="n">
-        <v>214.0518230687175</v>
+        <v>215.5034736378566</v>
       </c>
       <c r="I29" t="n">
-        <v>122.7181255712402</v>
+        <v>125.37138413325</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>79.555498575797</v>
+        <v>83.23857800184538</v>
       </c>
       <c r="S29" t="n">
-        <v>102.457387584746</v>
+        <v>104.44153581049</v>
       </c>
       <c r="T29" t="n">
-        <v>80.16862639719184</v>
+        <v>81.37140314874277</v>
       </c>
       <c r="U29" t="n">
-        <v>111.0084511123394</v>
+        <v>112.0288300414925</v>
       </c>
       <c r="V29" t="n">
-        <v>171.3642852520221</v>
+        <v>172.3812687592341</v>
       </c>
       <c r="W29" t="n">
-        <v>180.1483647303706</v>
+        <v>181.1653482375826</v>
       </c>
       <c r="X29" t="n">
-        <v>204.6047424524584</v>
+        <v>205.6217259596704</v>
       </c>
       <c r="Y29" t="n">
-        <v>238.1457143679953</v>
+        <v>239.1626978752073</v>
       </c>
     </row>
     <row r="30">
@@ -24758,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>58.69573772942871</v>
+        <v>59.7127212366407</v>
       </c>
       <c r="C30" t="n">
-        <v>77.91747860268327</v>
+        <v>78.93446210989526</v>
       </c>
       <c r="D30" t="n">
-        <v>43.8972184059655</v>
+        <v>44.91420191317749</v>
       </c>
       <c r="E30" t="n">
-        <v>61.07235225257688</v>
+        <v>62.08933575978887</v>
       </c>
       <c r="F30" t="n">
-        <v>47.2798232307465</v>
+        <v>48.29680673795849</v>
       </c>
       <c r="G30" t="n">
-        <v>32.34671964857776</v>
+        <v>33.38641204203843</v>
       </c>
       <c r="H30" t="n">
-        <v>8.679216143816319</v>
+        <v>9.91551968400903</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>29.04962389191991</v>
+        <v>31.476550354116</v>
       </c>
       <c r="S30" t="n">
-        <v>81.67253194388294</v>
+        <v>83.11132305312643</v>
       </c>
       <c r="T30" t="n">
-        <v>103.2584355687781</v>
+        <v>104.3669518236328</v>
       </c>
       <c r="U30" t="n">
-        <v>121.1075727167899</v>
+        <v>122.1260502296762</v>
       </c>
       <c r="V30" t="n">
-        <v>118.2330929851758</v>
+        <v>119.2500764923878</v>
       </c>
       <c r="W30" t="n">
-        <v>157.4719965254059</v>
+        <v>158.4889800326179</v>
       </c>
       <c r="X30" t="n">
-        <v>101.6929781699556</v>
+        <v>102.7099616771676</v>
       </c>
       <c r="Y30" t="n">
-        <v>119.1074078367602</v>
+        <v>120.1243913439721</v>
       </c>
     </row>
     <row r="31">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.67530055477252</v>
+        <v>37.69228406198451</v>
       </c>
       <c r="C31" t="n">
-        <v>28.13962837576338</v>
+        <v>29.15661188297537</v>
       </c>
       <c r="D31" t="n">
-        <v>1.999238702034972</v>
+        <v>3.016222209246962</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,16 +24852,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>32.70562376171895</v>
+        <v>33.7416456363209</v>
       </c>
       <c r="H31" t="n">
-        <v>31.68912833226972</v>
+        <v>32.87538023318524</v>
       </c>
       <c r="I31" t="n">
-        <v>32.12865612609573</v>
+        <v>95.61769218981917</v>
       </c>
       <c r="J31" t="n">
-        <v>1.898951562253501</v>
+        <v>4.261947643936153</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,31 +24882,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.26139559558106</v>
+        <v>31.872582757602</v>
       </c>
       <c r="R31" t="n">
-        <v>94.99048590255259</v>
+        <v>232.7104170393347</v>
       </c>
       <c r="S31" t="n">
-        <v>111.9681817984963</v>
+        <v>113.3169521264953</v>
       </c>
       <c r="T31" t="n">
-        <v>77.32411374282967</v>
+        <v>78.42244300161697</v>
       </c>
       <c r="U31" t="n">
-        <v>156.0719491619994</v>
+        <v>157.0899711256145</v>
       </c>
       <c r="V31" t="n">
-        <v>95.30605283754707</v>
+        <v>96.32303634475906</v>
       </c>
       <c r="W31" t="n">
-        <v>160.419637657476</v>
+        <v>161.436621164688</v>
       </c>
       <c r="X31" t="n">
-        <v>78.07814489873203</v>
+        <v>79.09512840594402</v>
       </c>
       <c r="Y31" t="n">
-        <v>77.62024355175623</v>
+        <v>78.63722705896822</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>221.3057365571169</v>
+        <v>222.3227200643289</v>
       </c>
       <c r="C32" t="n">
-        <v>185.6038971641281</v>
+        <v>186.6208806713402</v>
       </c>
       <c r="D32" t="n">
-        <v>169.7768663642951</v>
+        <v>170.7938498715071</v>
       </c>
       <c r="E32" t="n">
-        <v>215.3748310881183</v>
+        <v>216.3918145953303</v>
       </c>
       <c r="F32" t="n">
-        <v>259.5667053624761</v>
+        <v>260.5836888696882</v>
       </c>
       <c r="G32" t="n">
-        <v>287.506416273026</v>
+        <v>288.5658425545017</v>
       </c>
       <c r="H32" t="n">
-        <v>214.0518230687174</v>
+        <v>215.5034736378566</v>
       </c>
       <c r="I32" t="n">
-        <v>122.7181255712402</v>
+        <v>125.37138413325</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>79.55549857579697</v>
+        <v>83.23857800184538</v>
       </c>
       <c r="S32" t="n">
-        <v>102.457387584746</v>
+        <v>104.44153581049</v>
       </c>
       <c r="T32" t="n">
-        <v>80.16862639719182</v>
+        <v>81.37140314874277</v>
       </c>
       <c r="U32" t="n">
-        <v>111.0084511123393</v>
+        <v>112.0288300414925</v>
       </c>
       <c r="V32" t="n">
-        <v>171.3642852520221</v>
+        <v>172.3812687592341</v>
       </c>
       <c r="W32" t="n">
-        <v>180.1483647303706</v>
+        <v>181.1653482375826</v>
       </c>
       <c r="X32" t="n">
-        <v>204.6047424524584</v>
+        <v>205.6217259596704</v>
       </c>
       <c r="Y32" t="n">
-        <v>238.1457143679953</v>
+        <v>239.1626978752073</v>
       </c>
     </row>
     <row r="33">
@@ -24995,25 +24995,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>58.69573772942869</v>
+        <v>59.7127212366407</v>
       </c>
       <c r="C33" t="n">
-        <v>77.91747860268325</v>
+        <v>78.93446210989526</v>
       </c>
       <c r="D33" t="n">
-        <v>43.89721840596548</v>
+        <v>44.91420191317749</v>
       </c>
       <c r="E33" t="n">
-        <v>61.07235225257685</v>
+        <v>62.08933575978887</v>
       </c>
       <c r="F33" t="n">
-        <v>47.27982323074647</v>
+        <v>48.29680673795849</v>
       </c>
       <c r="G33" t="n">
-        <v>32.34671964857773</v>
+        <v>33.38641204203843</v>
       </c>
       <c r="H33" t="n">
-        <v>8.679216143816291</v>
+        <v>9.91551968400903</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>29.04962389191988</v>
+        <v>31.476550354116</v>
       </c>
       <c r="S33" t="n">
-        <v>81.67253194388292</v>
+        <v>83.11132305312643</v>
       </c>
       <c r="T33" t="n">
-        <v>103.258435568778</v>
+        <v>104.3669518236328</v>
       </c>
       <c r="U33" t="n">
-        <v>121.1075727167899</v>
+        <v>122.1260502296762</v>
       </c>
       <c r="V33" t="n">
-        <v>118.2330929851758</v>
+        <v>119.2500764923878</v>
       </c>
       <c r="W33" t="n">
-        <v>157.4719965254058</v>
+        <v>158.4889800326179</v>
       </c>
       <c r="X33" t="n">
-        <v>101.6929781699556</v>
+        <v>102.7099616771676</v>
       </c>
       <c r="Y33" t="n">
-        <v>119.1074078367601</v>
+        <v>120.1243913439721</v>
       </c>
     </row>
     <row r="34">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.67530055477249</v>
+        <v>37.69228406198451</v>
       </c>
       <c r="C34" t="n">
-        <v>28.13962837576335</v>
+        <v>29.15661188297537</v>
       </c>
       <c r="D34" t="n">
-        <v>1.999238702034944</v>
+        <v>56.83356045869191</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,28 +25089,28 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>32.70562376171893</v>
+        <v>33.7416456363209</v>
       </c>
       <c r="H34" t="n">
-        <v>31.68912833226969</v>
+        <v>32.87538023318524</v>
       </c>
       <c r="I34" t="n">
-        <v>32.12865612609571</v>
+        <v>33.71817526354418</v>
       </c>
       <c r="J34" t="n">
-        <v>1.898951562253473</v>
+        <v>4.261947643936153</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -25119,31 +25119,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.26139559558104</v>
+        <v>31.872582757602</v>
       </c>
       <c r="R34" t="n">
-        <v>94.99048590255256</v>
+        <v>96.86350363804438</v>
       </c>
       <c r="S34" t="n">
-        <v>111.9681817984963</v>
+        <v>113.3169521264953</v>
       </c>
       <c r="T34" t="n">
-        <v>77.32411374282964</v>
+        <v>78.42244300161697</v>
       </c>
       <c r="U34" t="n">
-        <v>156.0719491619994</v>
+        <v>157.0899711256145</v>
       </c>
       <c r="V34" t="n">
-        <v>95.30605283754704</v>
+        <v>96.32303634475906</v>
       </c>
       <c r="W34" t="n">
-        <v>160.419637657476</v>
+        <v>161.436621164688</v>
       </c>
       <c r="X34" t="n">
-        <v>78.07814489873201</v>
+        <v>79.09512840594402</v>
       </c>
       <c r="Y34" t="n">
-        <v>77.6202435517562</v>
+        <v>78.63722705896822</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>221.3057365571169</v>
+        <v>222.3227200643289</v>
       </c>
       <c r="C35" t="n">
-        <v>185.6038971641282</v>
+        <v>186.6208806713402</v>
       </c>
       <c r="D35" t="n">
-        <v>169.7768663642951</v>
+        <v>170.7938498715071</v>
       </c>
       <c r="E35" t="n">
-        <v>215.3748310881184</v>
+        <v>216.3918145953303</v>
       </c>
       <c r="F35" t="n">
-        <v>259.5667053624762</v>
+        <v>260.5836888696882</v>
       </c>
       <c r="G35" t="n">
-        <v>287.5064162730261</v>
+        <v>288.5658425545017</v>
       </c>
       <c r="H35" t="n">
-        <v>214.0518230687175</v>
+        <v>215.5034736378566</v>
       </c>
       <c r="I35" t="n">
-        <v>122.7181255712402</v>
+        <v>125.37138413325</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>79.555498575797</v>
+        <v>83.23857800184538</v>
       </c>
       <c r="S35" t="n">
-        <v>102.457387584746</v>
+        <v>104.44153581049</v>
       </c>
       <c r="T35" t="n">
-        <v>80.16862639719184</v>
+        <v>81.37140314874277</v>
       </c>
       <c r="U35" t="n">
-        <v>111.0084511123394</v>
+        <v>112.0288300414925</v>
       </c>
       <c r="V35" t="n">
-        <v>171.3642852520221</v>
+        <v>172.3812687592341</v>
       </c>
       <c r="W35" t="n">
-        <v>180.1483647303706</v>
+        <v>181.1653482375826</v>
       </c>
       <c r="X35" t="n">
-        <v>204.6047424524584</v>
+        <v>205.6217259596704</v>
       </c>
       <c r="Y35" t="n">
-        <v>238.1457143679953</v>
+        <v>239.1626978752073</v>
       </c>
     </row>
     <row r="36">
@@ -25232,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>58.69573772942871</v>
+        <v>59.7127212366407</v>
       </c>
       <c r="C36" t="n">
-        <v>77.91747860268327</v>
+        <v>78.93446210989526</v>
       </c>
       <c r="D36" t="n">
-        <v>43.8972184059655</v>
+        <v>44.91420191317749</v>
       </c>
       <c r="E36" t="n">
-        <v>61.07235225257688</v>
+        <v>62.08933575978887</v>
       </c>
       <c r="F36" t="n">
-        <v>47.2798232307465</v>
+        <v>48.29680673795849</v>
       </c>
       <c r="G36" t="n">
-        <v>32.34671964857776</v>
+        <v>33.38641204203843</v>
       </c>
       <c r="H36" t="n">
-        <v>8.679216143816319</v>
+        <v>9.91551968400903</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>29.04962389191991</v>
+        <v>31.476550354116</v>
       </c>
       <c r="S36" t="n">
-        <v>81.67253194388294</v>
+        <v>83.11132305312643</v>
       </c>
       <c r="T36" t="n">
-        <v>103.2584355687781</v>
+        <v>104.3669518236328</v>
       </c>
       <c r="U36" t="n">
-        <v>121.1075727167899</v>
+        <v>122.1260502296762</v>
       </c>
       <c r="V36" t="n">
-        <v>118.2330929851758</v>
+        <v>119.2500764923878</v>
       </c>
       <c r="W36" t="n">
-        <v>157.4719965254059</v>
+        <v>158.4889800326179</v>
       </c>
       <c r="X36" t="n">
-        <v>101.6929781699556</v>
+        <v>102.7099616771676</v>
       </c>
       <c r="Y36" t="n">
-        <v>119.1074078367602</v>
+        <v>120.1243913439721</v>
       </c>
     </row>
     <row r="37">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>36.67530055477252</v>
+        <v>37.69228406198451</v>
       </c>
       <c r="C37" t="n">
-        <v>28.13962837576338</v>
+        <v>29.15661188297537</v>
       </c>
       <c r="D37" t="n">
-        <v>1.999238702034972</v>
+        <v>3.016222209246962</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,16 +25326,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>32.70562376171895</v>
+        <v>33.7416456363209</v>
       </c>
       <c r="H37" t="n">
-        <v>31.68912833226972</v>
+        <v>32.87538023318524</v>
       </c>
       <c r="I37" t="n">
-        <v>32.12865612609573</v>
+        <v>95.61769218981941</v>
       </c>
       <c r="J37" t="n">
-        <v>1.898951562253501</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,31 +25356,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.26139559558106</v>
+        <v>31.872582757602</v>
       </c>
       <c r="R37" t="n">
-        <v>94.99048590255259</v>
+        <v>96.86350363804438</v>
       </c>
       <c r="S37" t="n">
-        <v>111.9681817984963</v>
+        <v>113.3169521264953</v>
       </c>
       <c r="T37" t="n">
-        <v>77.32411374282967</v>
+        <v>78.42244300161697</v>
       </c>
       <c r="U37" t="n">
-        <v>156.0719491619994</v>
+        <v>157.0899711256145</v>
       </c>
       <c r="V37" t="n">
-        <v>95.30605283754707</v>
+        <v>96.32303634475906</v>
       </c>
       <c r="W37" t="n">
-        <v>160.419637657476</v>
+        <v>161.436621164688</v>
       </c>
       <c r="X37" t="n">
-        <v>78.07814489873203</v>
+        <v>79.09512840594402</v>
       </c>
       <c r="Y37" t="n">
-        <v>77.62024355175623</v>
+        <v>78.63722705896822</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>221.3057365571169</v>
+        <v>222.3227200643289</v>
       </c>
       <c r="C38" t="n">
-        <v>185.6038971641282</v>
+        <v>186.6208806713402</v>
       </c>
       <c r="D38" t="n">
-        <v>169.7768663642951</v>
+        <v>170.7938498715071</v>
       </c>
       <c r="E38" t="n">
-        <v>215.3748310881184</v>
+        <v>216.3918145953303</v>
       </c>
       <c r="F38" t="n">
-        <v>259.5667053624762</v>
+        <v>260.5836888696882</v>
       </c>
       <c r="G38" t="n">
-        <v>287.5064162730261</v>
+        <v>288.5658425545017</v>
       </c>
       <c r="H38" t="n">
-        <v>214.0518230687175</v>
+        <v>215.5034736378566</v>
       </c>
       <c r="I38" t="n">
-        <v>122.7181255712402</v>
+        <v>125.37138413325</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>79.555498575797</v>
+        <v>83.23857800184538</v>
       </c>
       <c r="S38" t="n">
-        <v>102.457387584746</v>
+        <v>104.44153581049</v>
       </c>
       <c r="T38" t="n">
-        <v>80.16862639719184</v>
+        <v>81.37140314874277</v>
       </c>
       <c r="U38" t="n">
-        <v>111.0084511123394</v>
+        <v>112.0288300414925</v>
       </c>
       <c r="V38" t="n">
-        <v>171.3642852520221</v>
+        <v>172.3812687592341</v>
       </c>
       <c r="W38" t="n">
-        <v>180.1483647303706</v>
+        <v>181.1653482375826</v>
       </c>
       <c r="X38" t="n">
-        <v>204.6047424524584</v>
+        <v>205.6217259596704</v>
       </c>
       <c r="Y38" t="n">
-        <v>238.1457143679953</v>
+        <v>239.1626978752073</v>
       </c>
     </row>
     <row r="39">
@@ -25469,25 +25469,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>58.69573772942871</v>
+        <v>59.7127212366407</v>
       </c>
       <c r="C39" t="n">
-        <v>77.91747860268327</v>
+        <v>78.93446210989526</v>
       </c>
       <c r="D39" t="n">
-        <v>43.8972184059655</v>
+        <v>44.91420191317749</v>
       </c>
       <c r="E39" t="n">
-        <v>61.07235225257688</v>
+        <v>62.08933575978887</v>
       </c>
       <c r="F39" t="n">
-        <v>47.2798232307465</v>
+        <v>48.29680673795849</v>
       </c>
       <c r="G39" t="n">
-        <v>32.34671964857776</v>
+        <v>33.38641204203843</v>
       </c>
       <c r="H39" t="n">
-        <v>8.679216143816319</v>
+        <v>9.91551968400903</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>29.04962389191991</v>
+        <v>31.476550354116</v>
       </c>
       <c r="S39" t="n">
-        <v>81.67253194388294</v>
+        <v>83.11132305312643</v>
       </c>
       <c r="T39" t="n">
-        <v>103.2584355687781</v>
+        <v>104.3669518236328</v>
       </c>
       <c r="U39" t="n">
-        <v>121.1075727167899</v>
+        <v>122.1260502296762</v>
       </c>
       <c r="V39" t="n">
-        <v>118.2330929851758</v>
+        <v>119.2500764923878</v>
       </c>
       <c r="W39" t="n">
-        <v>157.4719965254059</v>
+        <v>158.4889800326179</v>
       </c>
       <c r="X39" t="n">
-        <v>101.6929781699556</v>
+        <v>102.7099616771676</v>
       </c>
       <c r="Y39" t="n">
-        <v>119.1074078367602</v>
+        <v>120.1243913439721</v>
       </c>
     </row>
     <row r="40">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>36.67530055477252</v>
+        <v>37.69228406198451</v>
       </c>
       <c r="C40" t="n">
-        <v>28.13962837576338</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D40" t="n">
-        <v>1.999238702034972</v>
+        <v>3.016222209246962</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,16 +25563,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>32.70562376171895</v>
+        <v>33.7416456363209</v>
       </c>
       <c r="H40" t="n">
-        <v>31.68912833226972</v>
+        <v>94.77489715946047</v>
       </c>
       <c r="I40" t="n">
-        <v>32.12865612609573</v>
+        <v>33.71817526354418</v>
       </c>
       <c r="J40" t="n">
-        <v>1.898951562253501</v>
+        <v>4.261947643936153</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,31 +25593,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.26139559558106</v>
+        <v>31.872582757602</v>
       </c>
       <c r="R40" t="n">
-        <v>94.99048590255259</v>
+        <v>96.86350363804438</v>
       </c>
       <c r="S40" t="n">
-        <v>111.9681817984963</v>
+        <v>113.3169521264953</v>
       </c>
       <c r="T40" t="n">
-        <v>77.32411374282967</v>
+        <v>78.42244300161697</v>
       </c>
       <c r="U40" t="n">
-        <v>156.0719491620033</v>
+        <v>157.0899711256145</v>
       </c>
       <c r="V40" t="n">
-        <v>95.30605283754707</v>
+        <v>96.32303634475906</v>
       </c>
       <c r="W40" t="n">
-        <v>160.419637657476</v>
+        <v>161.436621164688</v>
       </c>
       <c r="X40" t="n">
-        <v>78.07814489873203</v>
+        <v>79.09512840594402</v>
       </c>
       <c r="Y40" t="n">
-        <v>77.62024355175623</v>
+        <v>78.63722705896822</v>
       </c>
     </row>
     <row r="41">
@@ -25627,34 +25627,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>244.0529751107389</v>
+        <v>304.7539479311931</v>
       </c>
       <c r="C41" t="n">
-        <v>208.3511357177502</v>
+        <v>269.0521085382044</v>
       </c>
       <c r="D41" t="n">
-        <v>192.5241049179171</v>
+        <v>253.2250777383713</v>
       </c>
       <c r="E41" t="n">
-        <v>238.1220696417404</v>
+        <v>298.8230424621946</v>
       </c>
       <c r="F41" t="n">
-        <v>282.3139439160982</v>
+        <v>343.0149167365524</v>
       </c>
       <c r="G41" t="n">
-        <v>310.2536548266481</v>
+        <v>370.9970704213659</v>
       </c>
       <c r="H41" t="n">
-        <v>236.7990616223395</v>
+        <v>297.9347015047208</v>
       </c>
       <c r="I41" t="n">
-        <v>145.4653641248622</v>
+        <v>207.8026120001142</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>63.45851240411392</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>38.46551930172507</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -25669,34 +25669,34 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>21.89623259047914</v>
       </c>
       <c r="Q41" t="n">
-        <v>16.92754107041051</v>
+        <v>86.78071555100885</v>
       </c>
       <c r="R41" t="n">
-        <v>102.302737129419</v>
+        <v>165.6698058687096</v>
       </c>
       <c r="S41" t="n">
-        <v>125.204626138368</v>
+        <v>186.8727636773542</v>
       </c>
       <c r="T41" t="n">
-        <v>102.9158649508138</v>
+        <v>163.802631015607</v>
       </c>
       <c r="U41" t="n">
-        <v>133.7556896659614</v>
+        <v>194.4600579083567</v>
       </c>
       <c r="V41" t="n">
-        <v>194.1115238056441</v>
+        <v>254.8124966260983</v>
       </c>
       <c r="W41" t="n">
-        <v>202.8956032839926</v>
+        <v>263.5965761044469</v>
       </c>
       <c r="X41" t="n">
-        <v>227.3519810060804</v>
+        <v>288.0529538265346</v>
       </c>
       <c r="Y41" t="n">
-        <v>260.8929529216173</v>
+        <v>321.5939257420715</v>
       </c>
     </row>
     <row r="42">
@@ -25706,31 +25706,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>81.44297628305071</v>
+        <v>142.1439491035049</v>
       </c>
       <c r="C42" t="n">
-        <v>100.6647171563053</v>
+        <v>161.3656899767595</v>
       </c>
       <c r="D42" t="n">
-        <v>66.6444569595875</v>
+        <v>127.3454297800417</v>
       </c>
       <c r="E42" t="n">
-        <v>83.81959080619887</v>
+        <v>144.5205636266531</v>
       </c>
       <c r="F42" t="n">
-        <v>70.0270617843685</v>
+        <v>130.7280346048227</v>
       </c>
       <c r="G42" t="n">
-        <v>55.09395820219976</v>
+        <v>115.8176399089026</v>
       </c>
       <c r="H42" t="n">
-        <v>31.42645469743832</v>
+        <v>92.34674755087325</v>
       </c>
       <c r="I42" t="n">
-        <v>8.337427133463819</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>47.08166619553185</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25751,31 +25751,31 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>31.36012464171336</v>
       </c>
       <c r="R42" t="n">
-        <v>51.7968624455419</v>
+        <v>113.9077782209802</v>
       </c>
       <c r="S42" t="n">
-        <v>104.4197704975049</v>
+        <v>165.5425509199906</v>
       </c>
       <c r="T42" t="n">
-        <v>126.0056741224001</v>
+        <v>186.798179690497</v>
       </c>
       <c r="U42" t="n">
-        <v>143.8548112704119</v>
+        <v>204.5572780965404</v>
       </c>
       <c r="V42" t="n">
-        <v>140.9803315387978</v>
+        <v>201.681304359252</v>
       </c>
       <c r="W42" t="n">
-        <v>180.2192350790279</v>
+        <v>240.9202078994821</v>
       </c>
       <c r="X42" t="n">
-        <v>124.4402167235776</v>
+        <v>185.1411895440318</v>
       </c>
       <c r="Y42" t="n">
-        <v>141.8546463903822</v>
+        <v>202.5556192108364</v>
       </c>
     </row>
     <row r="43">
@@ -25785,76 +25785,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>59.42253910839452</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C43" t="n">
-        <v>50.88686692938538</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D43" t="n">
-        <v>24.74647725565697</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E43" t="n">
-        <v>18.80076612593831</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F43" t="n">
         <v>126.9717133511</v>
       </c>
       <c r="G43" t="n">
-        <v>55.45286231534095</v>
+        <v>169.5885590376112</v>
       </c>
       <c r="H43" t="n">
-        <v>54.43636688589172</v>
+        <v>115.3066081000495</v>
       </c>
       <c r="I43" t="n">
-        <v>168.992553034598</v>
+        <v>116.1494031304084</v>
       </c>
       <c r="J43" t="n">
-        <v>24.6461901158755</v>
+        <v>86.69317551080037</v>
       </c>
       <c r="K43" t="n">
-        <v>98.55123640234183</v>
+        <v>47.34746300649556</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>26.4386538014368</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>10.65906720783153</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>39.10991082748569</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q43" t="n">
-        <v>52.00863414920306</v>
+        <v>114.3038106244662</v>
       </c>
       <c r="R43" t="n">
-        <v>171.4245830245079</v>
+        <v>179.2947315049086</v>
       </c>
       <c r="S43" t="n">
-        <v>134.7154203521183</v>
+        <v>195.7481799933595</v>
       </c>
       <c r="T43" t="n">
-        <v>100.0713522964517</v>
+        <v>160.8536708684812</v>
       </c>
       <c r="U43" t="n">
-        <v>178.8191877156214</v>
+        <v>239.5211989924788</v>
       </c>
       <c r="V43" t="n">
-        <v>118.0532913911691</v>
+        <v>178.7542642116233</v>
       </c>
       <c r="W43" t="n">
-        <v>183.166876211098</v>
+        <v>297.2835345659783</v>
       </c>
       <c r="X43" t="n">
-        <v>100.825383452354</v>
+        <v>161.5263562728082</v>
       </c>
       <c r="Y43" t="n">
-        <v>100.3674821053782</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
     <row r="44">
@@ -25879,49 +25879,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G44" t="n">
-        <v>424.3703131815284</v>
+        <v>424.412755955792</v>
       </c>
       <c r="H44" t="n">
-        <v>350.9157199772197</v>
+        <v>351.3503870391469</v>
       </c>
       <c r="I44" t="n">
-        <v>259.5820224797425</v>
+        <v>261.2182975345403</v>
       </c>
       <c r="J44" t="n">
-        <v>113.2719205263841</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K44" t="n">
-        <v>86.48232478941668</v>
+        <v>91.88120483615114</v>
       </c>
       <c r="L44" t="n">
-        <v>46.71789743482168</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>14.7375564088087</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P44" t="n">
-        <v>69.20859413233046</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q44" t="n">
-        <v>131.0441994252908</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R44" t="n">
-        <v>216.4193954842993</v>
+        <v>219.0854914031357</v>
       </c>
       <c r="S44" t="n">
-        <v>239.3212844932483</v>
+        <v>240.2884492117802</v>
       </c>
       <c r="T44" t="n">
-        <v>217.0325233056941</v>
+        <v>217.2183165500331</v>
       </c>
       <c r="U44" t="n">
-        <v>247.8723480208417</v>
+        <v>247.8757434427827</v>
       </c>
       <c r="V44" t="n">
         <v>308.2281821605244</v>
@@ -25958,19 +25958,19 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>169.21061655708</v>
+        <v>169.2333254433287</v>
       </c>
       <c r="H45" t="n">
-        <v>145.5431130523186</v>
+        <v>145.7624330852993</v>
       </c>
       <c r="I45" t="n">
-        <v>122.4540854883441</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J45" t="n">
-        <v>98.35185998134867</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K45" t="n">
-        <v>39.81455943866638</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25985,22 +25985,22 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q45" t="n">
-        <v>81.8770407665705</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R45" t="n">
-        <v>165.9135208004222</v>
+        <v>167.3234637554063</v>
       </c>
       <c r="S45" t="n">
-        <v>218.5364288523871</v>
+        <v>218.9582364544167</v>
       </c>
       <c r="T45" t="n">
-        <v>240.1223324772803</v>
+        <v>240.2138652249231</v>
       </c>
       <c r="U45" t="n">
-        <v>257.9714696252922</v>
+        <v>257.9729636309664</v>
       </c>
       <c r="V45" t="n">
         <v>255.0969898936781</v>
@@ -26037,49 +26037,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G46" t="n">
-        <v>169.5695206702212</v>
+        <v>169.5885590376112</v>
       </c>
       <c r="H46" t="n">
-        <v>168.553025240772</v>
+        <v>168.7222936344755</v>
       </c>
       <c r="I46" t="n">
-        <v>168.992553034598</v>
+        <v>169.5650886648345</v>
       </c>
       <c r="J46" t="n">
-        <v>138.7628484707558</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K46" t="n">
-        <v>98.55123640234183</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L46" t="n">
-        <v>77.02385333317633</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M46" t="n">
-        <v>75.86266198249908</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N46" t="n">
-        <v>61.16136330339108</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O46" t="n">
-        <v>89.83460966937352</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P46" t="n">
-        <v>108.1576169638986</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q46" t="n">
-        <v>166.1252925040833</v>
+        <v>167.7194961588923</v>
       </c>
       <c r="R46" t="n">
-        <v>231.8543828110549</v>
+        <v>232.7104170393347</v>
       </c>
       <c r="S46" t="n">
-        <v>248.8320787069986</v>
+        <v>249.1638655277856</v>
       </c>
       <c r="T46" t="n">
-        <v>214.188010651332</v>
+        <v>214.2693564029072</v>
       </c>
       <c r="U46" t="n">
-        <v>292.9358460705017</v>
+        <v>292.9368845269048</v>
       </c>
       <c r="V46" t="n">
         <v>232.1699497460494</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>646031.1555738255</v>
+        <v>661732.9776119257</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>646031.1555738255</v>
+        <v>661732.9776119258</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>646031.1555738255</v>
+        <v>661732.9776119258</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>646031.1555738254</v>
+        <v>661732.9776119257</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>646031.1555738255</v>
+        <v>661732.9776119258</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>350131.2251259551</v>
+        <v>500346.4373178184</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>646031.1555738254</v>
+        <v>638851.173281164</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>646031.1555738255</v>
+        <v>638851.173281164</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>646031.1555738254</v>
+        <v>638851.173281164</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>646031.1555738252</v>
+        <v>638851.173281164</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>587048.4758938255</v>
+        <v>425110.2966714998</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>291148.5454459553</v>
+        <v>286605.5607081541</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>822517.7719194603</v>
+        <v>822517.7719194606</v>
       </c>
       <c r="C2" t="n">
-        <v>822517.7719194604</v>
+        <v>822517.7719194605</v>
       </c>
       <c r="D2" t="n">
         <v>822517.7719194604</v>
       </c>
       <c r="E2" t="n">
-        <v>576189.9495658441</v>
+        <v>590194.2773295557</v>
       </c>
       <c r="F2" t="n">
-        <v>576189.9495658441</v>
+        <v>590194.2773295557</v>
       </c>
       <c r="G2" t="n">
-        <v>576189.9495658441</v>
+        <v>590194.2773295557</v>
       </c>
       <c r="H2" t="n">
-        <v>576189.9495658443</v>
+        <v>590194.2773295557</v>
       </c>
       <c r="I2" t="n">
-        <v>576189.9495658443</v>
+        <v>590194.2773295557</v>
       </c>
       <c r="J2" t="n">
-        <v>312279.200788014</v>
+        <v>446254.9305807572</v>
       </c>
       <c r="K2" t="n">
-        <v>576189.9495658441</v>
+        <v>569786.1815750923</v>
       </c>
       <c r="L2" t="n">
-        <v>576189.9495658441</v>
+        <v>569786.1815750921</v>
       </c>
       <c r="M2" t="n">
-        <v>576189.9495658441</v>
+        <v>569786.1815750921</v>
       </c>
       <c r="N2" t="n">
-        <v>576189.9495658443</v>
+        <v>569786.1815750921</v>
       </c>
       <c r="O2" t="n">
-        <v>523583.7757971957</v>
+        <v>379152.4267610673</v>
       </c>
       <c r="P2" t="n">
-        <v>259673.0270193655</v>
+        <v>255621.1757667323</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>535509.312662611</v>
+        <v>533273.356723589</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>18197.7908428976</v>
+        <v>65944.98229349137</v>
       </c>
       <c r="K3" t="n">
-        <v>91293.32668390425</v>
+        <v>42732.54842754086</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>569049.7736743363</v>
+        <v>569049.7736743361</v>
       </c>
       <c r="C4" t="n">
-        <v>569049.7736743363</v>
+        <v>569049.7736743361</v>
       </c>
       <c r="D4" t="n">
-        <v>569049.7736743363</v>
+        <v>569049.7736743361</v>
       </c>
       <c r="E4" t="n">
-        <v>218978.7130299326</v>
+        <v>231470.679688229</v>
       </c>
       <c r="F4" t="n">
-        <v>218978.7130299326</v>
+        <v>231470.6796882291</v>
       </c>
       <c r="G4" t="n">
-        <v>218978.7130299326</v>
+        <v>231470.6796882291</v>
       </c>
       <c r="H4" t="n">
-        <v>218978.7130299326</v>
+        <v>231470.679688229</v>
       </c>
       <c r="I4" t="n">
-        <v>218978.7130299326</v>
+        <v>231470.6796882291</v>
       </c>
       <c r="J4" t="n">
-        <v>36394.99631365217</v>
+        <v>131887.8433209489</v>
       </c>
       <c r="K4" t="n">
-        <v>218978.7130299326</v>
+        <v>217351.5655892105</v>
       </c>
       <c r="L4" t="n">
-        <v>218978.7130299326</v>
+        <v>217351.5655892105</v>
       </c>
       <c r="M4" t="n">
-        <v>218978.7130299326</v>
+        <v>217351.5655892105</v>
       </c>
       <c r="N4" t="n">
-        <v>218978.7130299326</v>
+        <v>217351.5655892105</v>
       </c>
       <c r="O4" t="n">
-        <v>182583.7167162804</v>
+        <v>85463.72226826151</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>23065.83416863203</v>
+        <v>23492.05513703325</v>
       </c>
       <c r="F5" t="n">
-        <v>23065.83416863203</v>
+        <v>23492.05513703325</v>
       </c>
       <c r="G5" t="n">
-        <v>23065.83416863203</v>
+        <v>23492.05513703325</v>
       </c>
       <c r="H5" t="n">
-        <v>23065.83416863203</v>
+        <v>23492.05513703325</v>
       </c>
       <c r="I5" t="n">
-        <v>23065.83416863203</v>
+        <v>23492.05513703325</v>
       </c>
       <c r="J5" t="n">
-        <v>13472.16081739559</v>
+        <v>18259.57756083257</v>
       </c>
       <c r="K5" t="n">
-        <v>23065.83416863202</v>
+        <v>22750.18082802623</v>
       </c>
       <c r="L5" t="n">
-        <v>23065.83416863203</v>
+        <v>22750.18082802623</v>
       </c>
       <c r="M5" t="n">
-        <v>23065.83416863202</v>
+        <v>22750.18082802623</v>
       </c>
       <c r="N5" t="n">
-        <v>23065.83416863202</v>
+        <v>22750.18082802623</v>
       </c>
       <c r="O5" t="n">
-        <v>21153.49657066758</v>
+        <v>15820.26993248683</v>
       </c>
       <c r="P5" t="n">
-        <v>11559.82321943114</v>
+        <v>11329.66666529316</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>219840.398245124</v>
+        <v>219787.659184932</v>
       </c>
       <c r="C6" t="n">
-        <v>219840.3982451241</v>
+        <v>219787.6591849318</v>
       </c>
       <c r="D6" t="n">
-        <v>219840.3982451241</v>
+        <v>219787.6591849317</v>
       </c>
       <c r="E6" t="n">
-        <v>-201363.9102953315</v>
+        <v>-205134.6591761518</v>
       </c>
       <c r="F6" t="n">
-        <v>334145.4023672795</v>
+        <v>328138.6975474372</v>
       </c>
       <c r="G6" t="n">
-        <v>334145.4023672795</v>
+        <v>328138.6975474372</v>
       </c>
       <c r="H6" t="n">
-        <v>334145.4023672796</v>
+        <v>328138.6975474372</v>
       </c>
       <c r="I6" t="n">
-        <v>334145.4023672796</v>
+        <v>328138.6975474372</v>
       </c>
       <c r="J6" t="n">
-        <v>244214.2528140687</v>
+        <v>218707.8840623008</v>
       </c>
       <c r="K6" t="n">
-        <v>242852.0756833752</v>
+        <v>279240.6146293838</v>
       </c>
       <c r="L6" t="n">
-        <v>334145.4023672795</v>
+        <v>321973.1630569245</v>
       </c>
       <c r="M6" t="n">
-        <v>334145.4023672795</v>
+        <v>321973.1630569245</v>
       </c>
       <c r="N6" t="n">
-        <v>334145.4023672796</v>
+        <v>321973.1630569245</v>
       </c>
       <c r="O6" t="n">
-        <v>319846.5625102477</v>
+        <v>264380.3820104782</v>
       </c>
       <c r="P6" t="n">
-        <v>248113.2037999344</v>
+        <v>227060.0853093457</v>
       </c>
     </row>
   </sheetData>
@@ -26694,37 +26694,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="F2" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="G2" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="H2" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="I2" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="J2" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="K2" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="L2" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="M2" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="N2" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="O2" t="n">
-        <v>114.1166583548803</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>530.2671201573919</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="F3" t="n">
-        <v>530.2671201573919</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="G3" t="n">
-        <v>530.2671201573919</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="H3" t="n">
-        <v>530.2671201573919</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="I3" t="n">
-        <v>530.2671201573919</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="J3" t="n">
-        <v>530.2671201573919</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="K3" t="n">
-        <v>530.2671201573919</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="L3" t="n">
-        <v>530.2671201573919</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="M3" t="n">
-        <v>530.2671201573919</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="N3" t="n">
-        <v>530.2671201573919</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="O3" t="n">
-        <v>530.2671201573919</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="P3" t="n">
-        <v>530.2671201573919</v>
+        <v>519.7094800593193</v>
       </c>
     </row>
     <row r="4">
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="K2" t="n">
-        <v>114.1166583548803</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>530.2671201573919</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="P2" t="n">
-        <v>114.1166583548803</v>
+        <v>53.41568553442607</v>
       </c>
     </row>
     <row r="3">
@@ -28089,76 +28089,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="C11" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="D11" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="E11" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="F11" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="G11" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="H11" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="I11" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="J11" t="n">
-        <v>113.2719205263841</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K11" t="n">
-        <v>86.48232478941668</v>
+        <v>91.88120483615114</v>
       </c>
       <c r="L11" t="n">
-        <v>46.71789743482168</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>14.7375564088087</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P11" t="n">
-        <v>69.20859413233046</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q11" t="n">
-        <v>131.0441994252908</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R11" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="S11" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="T11" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="U11" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="V11" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="W11" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="X11" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="Y11" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
     </row>
     <row r="12">
@@ -28168,34 +28168,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="C12" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="D12" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="E12" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="F12" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="G12" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="H12" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="I12" t="n">
-        <v>122.4540854883441</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J12" t="n">
-        <v>98.35185998134867</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K12" t="n">
-        <v>39.81455943866638</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -28210,34 +28210,34 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q12" t="n">
-        <v>81.8770407665705</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R12" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="S12" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="T12" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="U12" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="V12" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="W12" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="X12" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="Y12" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
     </row>
     <row r="13">
@@ -28247,13 +28247,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="C13" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="D13" t="n">
-        <v>136.8638969085023</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E13" t="n">
         <v>132.9174244808186</v>
@@ -28262,61 +28262,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G13" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="H13" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="I13" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8638969085023</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K13" t="n">
-        <v>98.55123640234183</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L13" t="n">
-        <v>77.02385333317633</v>
+        <v>79.85433933585985</v>
       </c>
       <c r="M13" t="n">
-        <v>75.86266198249908</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N13" t="n">
-        <v>61.16136330339108</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O13" t="n">
-        <v>89.83460966936975</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P13" t="n">
-        <v>108.1576169638986</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q13" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="R13" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="S13" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="T13" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="U13" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="V13" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="W13" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="X13" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="Y13" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
     </row>
     <row r="14">
@@ -28326,76 +28326,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="C14" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="D14" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="E14" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="F14" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="G14" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="H14" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="I14" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="J14" t="n">
-        <v>113.271920526384</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K14" t="n">
-        <v>86.48232478941668</v>
+        <v>91.88120483615114</v>
       </c>
       <c r="L14" t="n">
-        <v>46.71789743482162</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>14.73755640880864</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P14" t="n">
-        <v>69.20859413233046</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q14" t="n">
-        <v>131.0441994252908</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R14" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="S14" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="T14" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="U14" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="V14" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="W14" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="X14" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="Y14" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
     </row>
     <row r="15">
@@ -28405,34 +28405,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="C15" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="D15" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="E15" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="F15" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="G15" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="H15" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="I15" t="n">
-        <v>122.4540854883441</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J15" t="n">
-        <v>98.35185998134865</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K15" t="n">
-        <v>39.81455943866638</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -28447,34 +28447,34 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q15" t="n">
-        <v>81.87704076657047</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R15" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="S15" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="T15" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="U15" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="V15" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="W15" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="X15" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="Y15" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
     </row>
     <row r="16">
@@ -28484,13 +28484,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="C16" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="D16" t="n">
-        <v>136.8638969085023</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E16" t="n">
         <v>132.9174244808186</v>
@@ -28499,61 +28499,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G16" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="H16" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="I16" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="J16" t="n">
-        <v>136.8638969085023</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K16" t="n">
-        <v>98.55123640234183</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L16" t="n">
-        <v>77.02385333317633</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M16" t="n">
-        <v>75.86266198249905</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N16" t="n">
-        <v>61.16136330339108</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O16" t="n">
-        <v>89.83460966937352</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P16" t="n">
-        <v>108.1576169638986</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q16" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="R16" t="n">
-        <v>136.8638969085003</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="S16" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="T16" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="U16" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="V16" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="W16" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="X16" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="Y16" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
     </row>
     <row r="17">
@@ -28563,76 +28563,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="C17" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="D17" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="E17" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="F17" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="G17" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="H17" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="I17" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="J17" t="n">
-        <v>113.2719205263841</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K17" t="n">
-        <v>86.48232478941668</v>
+        <v>91.88120483615114</v>
       </c>
       <c r="L17" t="n">
-        <v>46.71789743482168</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>14.7375564088087</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P17" t="n">
-        <v>69.20859413233046</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q17" t="n">
-        <v>131.0441994252908</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R17" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="S17" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="T17" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="U17" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="V17" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="W17" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="X17" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="Y17" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
     </row>
     <row r="18">
@@ -28642,34 +28642,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="C18" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="D18" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="E18" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="F18" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="G18" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="H18" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="I18" t="n">
-        <v>122.4540854883441</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J18" t="n">
-        <v>98.35185998134867</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K18" t="n">
-        <v>39.81455943866638</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -28684,34 +28684,34 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q18" t="n">
-        <v>81.8770407665705</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R18" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="S18" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="T18" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="U18" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="V18" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="W18" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="X18" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="Y18" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
     </row>
     <row r="19">
@@ -28721,13 +28721,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="C19" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="D19" t="n">
-        <v>136.8638969085023</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E19" t="n">
         <v>132.9174244808186</v>
@@ -28736,61 +28736,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G19" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="H19" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="I19" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="J19" t="n">
-        <v>136.8638969085023</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K19" t="n">
-        <v>98.55123640234183</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L19" t="n">
-        <v>77.02385333317633</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M19" t="n">
-        <v>75.86266198249498</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N19" t="n">
-        <v>61.16136330339108</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O19" t="n">
-        <v>89.83460966937352</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P19" t="n">
-        <v>108.1576169638986</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q19" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="R19" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="S19" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="T19" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="U19" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="V19" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="W19" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="X19" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="Y19" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
     </row>
     <row r="20">
@@ -28800,76 +28800,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="C20" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="D20" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="E20" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="F20" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="G20" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="H20" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="I20" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="J20" t="n">
-        <v>113.2719205263841</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K20" t="n">
-        <v>86.48232478941668</v>
+        <v>91.88120483615114</v>
       </c>
       <c r="L20" t="n">
-        <v>46.71789743482168</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>14.7375564088087</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P20" t="n">
-        <v>69.20859413233046</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q20" t="n">
-        <v>131.0441994252908</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R20" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="S20" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="T20" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="U20" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="V20" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="W20" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="X20" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="Y20" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
     </row>
     <row r="21">
@@ -28879,34 +28879,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="C21" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="D21" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="E21" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="F21" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="G21" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="H21" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="I21" t="n">
-        <v>122.4540854883441</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J21" t="n">
-        <v>98.35185998134867</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K21" t="n">
-        <v>39.81455943866638</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -28921,34 +28921,34 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q21" t="n">
-        <v>81.8770407665705</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R21" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="S21" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="T21" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="U21" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="V21" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="W21" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="X21" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="Y21" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
     </row>
     <row r="22">
@@ -28958,13 +28958,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="C22" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="D22" t="n">
-        <v>136.8638969084984</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E22" t="n">
         <v>132.9174244808186</v>
@@ -28973,61 +28973,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G22" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="H22" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="I22" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="J22" t="n">
-        <v>136.8638969085023</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K22" t="n">
-        <v>98.55123640234183</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L22" t="n">
-        <v>77.02385333317633</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M22" t="n">
-        <v>75.86266198249908</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N22" t="n">
-        <v>61.16136330339108</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O22" t="n">
-        <v>89.83460966937352</v>
+        <v>92.5255963619086</v>
       </c>
       <c r="P22" t="n">
-        <v>108.1576169638986</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q22" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="R22" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="S22" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="T22" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="U22" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="V22" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="W22" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="X22" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="Y22" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
     </row>
     <row r="23">
@@ -29037,76 +29037,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="C23" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="D23" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="E23" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="F23" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="G23" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="H23" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="I23" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="J23" t="n">
-        <v>113.2719205263841</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K23" t="n">
-        <v>86.48232478941668</v>
+        <v>91.88120483615114</v>
       </c>
       <c r="L23" t="n">
-        <v>46.71789743482168</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>14.7375564088087</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P23" t="n">
-        <v>69.20859413233046</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q23" t="n">
-        <v>131.0441994252908</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R23" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="S23" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="T23" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="U23" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="V23" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="W23" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="X23" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="Y23" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
     </row>
     <row r="24">
@@ -29116,34 +29116,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="C24" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="D24" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="E24" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="F24" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="G24" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="H24" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="I24" t="n">
-        <v>122.4540854883441</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J24" t="n">
-        <v>98.35185998134867</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K24" t="n">
-        <v>39.81455943866638</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -29158,34 +29158,34 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q24" t="n">
-        <v>81.8770407665705</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R24" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="S24" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="T24" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="U24" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="V24" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="W24" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="X24" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="Y24" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
     </row>
     <row r="25">
@@ -29195,13 +29195,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="C25" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="D25" t="n">
-        <v>136.8638969085023</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E25" t="n">
         <v>132.9174244808186</v>
@@ -29210,61 +29210,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G25" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="H25" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="I25" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="J25" t="n">
-        <v>136.8638969085023</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K25" t="n">
-        <v>98.55123640234183</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L25" t="n">
-        <v>77.02385333317633</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M25" t="n">
-        <v>75.86266198249908</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N25" t="n">
-        <v>61.16136330339108</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O25" t="n">
-        <v>89.83460966937352</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P25" t="n">
-        <v>108.1576169638986</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q25" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="R25" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="S25" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="T25" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="U25" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="V25" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="W25" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="X25" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="Y25" t="n">
-        <v>136.8638969085023</v>
+        <v>144.6715016443646</v>
       </c>
     </row>
     <row r="26">
@@ -29274,76 +29274,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="C26" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="D26" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="E26" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="F26" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="G26" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="H26" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="I26" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="J26" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="K26" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="L26" t="n">
-        <v>22.747238553622</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P26" t="n">
-        <v>6.172617496962788</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q26" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="R26" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="S26" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="T26" t="n">
-        <v>22.747238553622</v>
+        <v>79.89358888811657</v>
       </c>
       <c r="U26" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="V26" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="W26" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="X26" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="Y26" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
     </row>
     <row r="27">
@@ -29353,34 +29353,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="C27" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="D27" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="E27" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="F27" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="G27" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="H27" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="I27" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="J27" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="K27" t="n">
-        <v>22.747238553622</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -29395,34 +29395,34 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="R27" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="S27" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="T27" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="U27" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="V27" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="W27" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="X27" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="Y27" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
     </row>
     <row r="28">
@@ -29435,73 +29435,73 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>22.747238553622</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="E28" t="n">
-        <v>22.747238553622</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="H28" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="I28" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="J28" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="K28" t="n">
-        <v>22.747238553622</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>22.747238553622</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="P28" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.747238553622</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>22.747238553622</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="U28" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="V28" t="n">
-        <v>22.747238553622</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
       <c r="X28" t="n">
-        <v>22.747238553622</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>22.747238553622</v>
+        <v>82.43122786686422</v>
       </c>
     </row>
     <row r="29">
@@ -29511,76 +29511,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="C29" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="D29" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="E29" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="F29" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="G29" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="H29" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="I29" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="J29" t="n">
-        <v>113.2719205263841</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K29" t="n">
-        <v>86.48232478941668</v>
+        <v>91.88120483615114</v>
       </c>
       <c r="L29" t="n">
-        <v>46.71789743482168</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>14.7375564088087</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P29" t="n">
-        <v>69.20859413233046</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q29" t="n">
-        <v>131.0441994252908</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R29" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="S29" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="T29" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="U29" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="V29" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="W29" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="X29" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="Y29" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
     </row>
     <row r="30">
@@ -29590,34 +29590,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="C30" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="D30" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="E30" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="F30" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="G30" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="H30" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="I30" t="n">
-        <v>122.4540854883441</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J30" t="n">
-        <v>98.35185998134867</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K30" t="n">
-        <v>39.81455943866638</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -29632,34 +29632,34 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q30" t="n">
-        <v>81.8770407665705</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R30" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="S30" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="T30" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="U30" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="V30" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="W30" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="X30" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="Y30" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
     </row>
     <row r="31">
@@ -29669,13 +29669,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="C31" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="D31" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="E31" t="n">
         <v>132.9174244808186</v>
@@ -29684,61 +29684,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G31" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="H31" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="I31" t="n">
-        <v>136.8638969085023</v>
+        <v>73.94739647501531</v>
       </c>
       <c r="J31" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="K31" t="n">
-        <v>98.55123640234183</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L31" t="n">
-        <v>77.02385333317633</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M31" t="n">
-        <v>75.86266198249908</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N31" t="n">
-        <v>61.16136330339108</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O31" t="n">
-        <v>89.83460966937352</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P31" t="n">
-        <v>108.1576169638986</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q31" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="R31" t="n">
-        <v>136.8638969085023</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="T31" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="U31" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="V31" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="W31" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="X31" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="Y31" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
     </row>
     <row r="32">
@@ -29748,76 +29748,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="C32" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="D32" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="E32" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="F32" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="G32" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="H32" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="I32" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="J32" t="n">
-        <v>113.2719205263841</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K32" t="n">
-        <v>86.48232478941668</v>
+        <v>91.88120483615114</v>
       </c>
       <c r="L32" t="n">
-        <v>46.71789743482168</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>14.7375564088087</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P32" t="n">
-        <v>69.20859413233046</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q32" t="n">
-        <v>131.0441994252908</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R32" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="S32" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="T32" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="U32" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="V32" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="W32" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="X32" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="Y32" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
     </row>
     <row r="33">
@@ -29827,34 +29827,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="C33" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="D33" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="E33" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="F33" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="G33" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="H33" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="I33" t="n">
-        <v>122.4540854883441</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J33" t="n">
-        <v>98.35185998134867</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K33" t="n">
-        <v>39.81455943866638</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -29869,34 +29869,34 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q33" t="n">
-        <v>81.8770407665705</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R33" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="S33" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="T33" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="U33" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="V33" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="W33" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="X33" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="Y33" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
     </row>
     <row r="34">
@@ -29906,13 +29906,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="C34" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="D34" t="n">
-        <v>136.8638969085023</v>
+        <v>82.02957515184535</v>
       </c>
       <c r="E34" t="n">
         <v>132.9174244808186</v>
@@ -29921,61 +29921,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G34" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="H34" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="I34" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="J34" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="K34" t="n">
-        <v>98.55123640234183</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L34" t="n">
-        <v>77.02385333317633</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>75.86266198249908</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N34" t="n">
-        <v>61.16136330339108</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>89.83460966937352</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P34" t="n">
-        <v>108.1576169638957</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q34" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="R34" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="S34" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="T34" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="U34" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="V34" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="W34" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="X34" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="Y34" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
     </row>
     <row r="35">
@@ -29985,76 +29985,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="C35" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="D35" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="E35" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="F35" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="G35" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="H35" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="I35" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="J35" t="n">
-        <v>113.2719205263841</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K35" t="n">
-        <v>86.48232478941668</v>
+        <v>91.88120483615114</v>
       </c>
       <c r="L35" t="n">
-        <v>46.71789743482168</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>14.7375564088087</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P35" t="n">
-        <v>69.20859413233046</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q35" t="n">
-        <v>131.0441994252908</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R35" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="S35" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="T35" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="U35" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="V35" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="W35" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="X35" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="Y35" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
     </row>
     <row r="36">
@@ -30064,34 +30064,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="C36" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="D36" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="E36" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="F36" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="G36" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="H36" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="I36" t="n">
-        <v>122.4540854883441</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J36" t="n">
-        <v>98.35185998134867</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K36" t="n">
-        <v>39.81455943866638</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -30106,34 +30106,34 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q36" t="n">
-        <v>81.8770407665705</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R36" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="S36" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="T36" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="U36" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="V36" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="W36" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="X36" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="Y36" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
     </row>
     <row r="37">
@@ -30143,13 +30143,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="C37" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="D37" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="E37" t="n">
         <v>132.9174244808186</v>
@@ -30158,61 +30158,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G37" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="H37" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="I37" t="n">
-        <v>136.8638969085023</v>
+        <v>73.94739647501507</v>
       </c>
       <c r="J37" t="n">
-        <v>136.8638969085023</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>98.55123640234183</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L37" t="n">
-        <v>77.02385333317633</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M37" t="n">
-        <v>75.86266198249908</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N37" t="n">
-        <v>61.16136330339108</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O37" t="n">
-        <v>89.83460966937352</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P37" t="n">
-        <v>108.1576169638986</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q37" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="R37" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="S37" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="T37" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="U37" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="V37" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="W37" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="X37" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="Y37" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
     </row>
     <row r="38">
@@ -30222,76 +30222,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="C38" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="D38" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="E38" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="F38" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="G38" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="H38" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="I38" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="J38" t="n">
-        <v>113.2719205263841</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K38" t="n">
-        <v>86.48232478941668</v>
+        <v>91.88120483615114</v>
       </c>
       <c r="L38" t="n">
-        <v>46.71789743482168</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>14.7375564088087</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P38" t="n">
-        <v>69.20859413233046</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q38" t="n">
-        <v>131.0441994252908</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R38" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="S38" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="T38" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="U38" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="V38" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="W38" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="X38" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="Y38" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
     </row>
     <row r="39">
@@ -30301,34 +30301,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="C39" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="D39" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="E39" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="F39" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="G39" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="H39" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="I39" t="n">
-        <v>122.4540854883441</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J39" t="n">
-        <v>98.35185998134867</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K39" t="n">
-        <v>39.81455943866638</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -30343,34 +30343,34 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q39" t="n">
-        <v>81.8770407665705</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R39" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="S39" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="T39" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="U39" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="V39" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="W39" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="X39" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="Y39" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
     </row>
     <row r="40">
@@ -30380,13 +30380,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="C40" t="n">
-        <v>136.8638969085023</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="E40" t="n">
         <v>132.9174244808186</v>
@@ -30395,61 +30395,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G40" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="H40" t="n">
-        <v>136.8638969085023</v>
+        <v>73.94739647501507</v>
       </c>
       <c r="I40" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="J40" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="K40" t="n">
-        <v>98.55123640234183</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L40" t="n">
-        <v>77.02385333317633</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M40" t="n">
-        <v>75.86266198249908</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N40" t="n">
-        <v>61.16136330339108</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O40" t="n">
-        <v>89.83460966937352</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P40" t="n">
-        <v>108.1576169638986</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q40" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="R40" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="S40" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="T40" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="U40" t="n">
-        <v>136.8638969084984</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="V40" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="W40" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="X40" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
       <c r="Y40" t="n">
-        <v>136.8638969085023</v>
+        <v>135.8469134012903</v>
       </c>
     </row>
     <row r="41">
@@ -30459,76 +30459,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>114.1166583548803</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="C41" t="n">
-        <v>114.1166583548803</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="D41" t="n">
-        <v>114.1166583548803</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="E41" t="n">
-        <v>114.1166583548803</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="F41" t="n">
-        <v>114.1166583548803</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="G41" t="n">
-        <v>114.1166583548803</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="H41" t="n">
-        <v>114.1166583548803</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="I41" t="n">
-        <v>114.1166583548803</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="J41" t="n">
-        <v>113.2719205263841</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="K41" t="n">
-        <v>86.48232478941668</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="L41" t="n">
-        <v>46.71789743482168</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>14.7375564088087</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P41" t="n">
-        <v>69.20859413233046</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="Q41" t="n">
-        <v>114.1166583548803</v>
+        <v>48.84682601354121</v>
       </c>
       <c r="R41" t="n">
-        <v>114.1166583548803</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="S41" t="n">
-        <v>114.1166583548803</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="T41" t="n">
-        <v>114.1166583548803</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="U41" t="n">
-        <v>114.1166583548803</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="V41" t="n">
-        <v>114.1166583548803</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="W41" t="n">
-        <v>114.1166583548803</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="X41" t="n">
-        <v>114.1166583548803</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="Y41" t="n">
-        <v>114.1166583548803</v>
+        <v>53.41568553442607</v>
       </c>
     </row>
     <row r="42">
@@ -30538,34 +30538,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>114.1166583548803</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="C42" t="n">
-        <v>114.1166583548803</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="D42" t="n">
-        <v>114.1166583548803</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="E42" t="n">
-        <v>114.1166583548803</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="F42" t="n">
-        <v>114.1166583548803</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="G42" t="n">
-        <v>114.1166583548803</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="H42" t="n">
-        <v>114.1166583548803</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="I42" t="n">
-        <v>114.1166583548803</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>98.35185998134867</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="K42" t="n">
-        <v>39.81455943866638</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -30580,34 +30580,34 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q42" t="n">
-        <v>81.8770407665705</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="R42" t="n">
-        <v>114.1166583548803</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="S42" t="n">
-        <v>114.1166583548803</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="T42" t="n">
-        <v>114.1166583548803</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="U42" t="n">
-        <v>114.1166583548803</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="V42" t="n">
-        <v>114.1166583548803</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="W42" t="n">
-        <v>114.1166583548803</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="X42" t="n">
-        <v>114.1166583548803</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="Y42" t="n">
-        <v>114.1166583548803</v>
+        <v>53.41568553442607</v>
       </c>
     </row>
     <row r="43">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>114.1166583548803</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>114.1166583548803</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>114.1166583548803</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>114.1166583548803</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>114.1166583548803</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>114.1166583548803</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="J43" t="n">
-        <v>114.1166583548803</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="L43" t="n">
-        <v>77.02385333317633</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M43" t="n">
-        <v>75.86266198249908</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>61.16136330339108</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="O43" t="n">
-        <v>89.83460966937352</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="P43" t="n">
-        <v>108.1576169638986</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>114.1166583548803</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="R43" t="n">
-        <v>60.429799786547</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="S43" t="n">
-        <v>114.1166583548803</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="T43" t="n">
-        <v>114.1166583548803</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1166583548803</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="V43" t="n">
-        <v>114.1166583548803</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="W43" t="n">
-        <v>114.1166583548803</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>114.1166583548803</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="Y43" t="n">
-        <v>114.1166583548803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.131727116210619</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H11" t="n">
-        <v>21.83155032889201</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I11" t="n">
-        <v>82.18340964770998</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J11" t="n">
-        <v>180.9276743294812</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K11" t="n">
-        <v>271.1636831586767</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L11" t="n">
-        <v>336.4025268914075</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M11" t="n">
-        <v>374.3126289943182</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N11" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>359.1720371514322</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P11" t="n">
-        <v>306.5450239699825</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q11" t="n">
-        <v>230.2025466206896</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R11" t="n">
-        <v>133.9071034636654</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S11" t="n">
-        <v>48.57673166064953</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T11" t="n">
-        <v>9.331635451211989</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1705381692968495</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.140574560338541</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H12" t="n">
-        <v>11.0155490432696</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I12" t="n">
-        <v>39.26978201165591</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J12" t="n">
-        <v>107.7592833519847</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K12" t="n">
-        <v>184.177778894667</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L12" t="n">
         <v>225.1508671422956</v>
@@ -31858,22 +31858,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>217.7084120482866</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q12" t="n">
-        <v>145.5933421232145</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R12" t="n">
-        <v>70.81567314101927</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S12" t="n">
-        <v>21.18567220628824</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T12" t="n">
-        <v>4.597315881364556</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07503780002227248</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9562193970051328</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H13" t="n">
-        <v>8.50165972973655</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I13" t="n">
-        <v>28.75612513902709</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J13" t="n">
-        <v>67.60471136826288</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K13" t="n">
-        <v>111.0953081247781</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L13" t="n">
-        <v>142.1637456238359</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M13" t="n">
-        <v>149.8917369323591</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N13" t="n">
-        <v>146.3276464526128</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O13" t="n">
-        <v>135.157265314871</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P13" t="n">
-        <v>115.6503896159662</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.07033514376617</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R13" t="n">
-        <v>42.99510125079442</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S13" t="n">
-        <v>16.66429621871672</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T13" t="n">
-        <v>4.085664696294657</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05215742165482549</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.131727116210619</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H14" t="n">
-        <v>21.83155032889201</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I14" t="n">
-        <v>82.18340964770998</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J14" t="n">
-        <v>180.9276743294812</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K14" t="n">
-        <v>271.1636831586767</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L14" t="n">
-        <v>336.4025268914076</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M14" t="n">
-        <v>374.3126289943182</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N14" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>359.1720371514323</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P14" t="n">
-        <v>306.5450239699825</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q14" t="n">
-        <v>230.2025466206897</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R14" t="n">
-        <v>133.9071034636654</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S14" t="n">
-        <v>48.57673166064953</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T14" t="n">
-        <v>9.331635451211991</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1705381692968495</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.140574560338541</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H15" t="n">
-        <v>11.0155490432696</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I15" t="n">
-        <v>39.26978201165592</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J15" t="n">
-        <v>107.7592833519847</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K15" t="n">
-        <v>184.177778894667</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L15" t="n">
         <v>225.1508671422956</v>
@@ -32095,22 +32095,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>217.7084120482866</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q15" t="n">
-        <v>145.5933421232145</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R15" t="n">
-        <v>70.81567314101929</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S15" t="n">
-        <v>21.18567220628824</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T15" t="n">
-        <v>4.597315881364556</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07503780002227248</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9562193970051329</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H16" t="n">
-        <v>8.501659729736552</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I16" t="n">
-        <v>28.75612513902709</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J16" t="n">
-        <v>67.60471136826288</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K16" t="n">
-        <v>111.0953081247781</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L16" t="n">
-        <v>142.1637456238359</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M16" t="n">
-        <v>149.8917369323592</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N16" t="n">
-        <v>146.3276464526128</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O16" t="n">
-        <v>135.157265314871</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P16" t="n">
-        <v>115.6503896159662</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q16" t="n">
-        <v>80.07033514376619</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R16" t="n">
-        <v>42.99510125079442</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S16" t="n">
-        <v>16.66429621871672</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T16" t="n">
-        <v>4.085664696294658</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05215742165482549</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.131727116210619</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H17" t="n">
-        <v>21.83155032889201</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I17" t="n">
-        <v>82.18340964770998</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J17" t="n">
-        <v>180.9276743294812</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K17" t="n">
-        <v>271.1636831586767</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L17" t="n">
-        <v>336.4025268914075</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M17" t="n">
-        <v>374.3126289943181</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N17" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>359.1720371514322</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P17" t="n">
-        <v>306.5450239699825</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q17" t="n">
-        <v>230.2025466206896</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R17" t="n">
-        <v>133.9071034636654</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S17" t="n">
-        <v>48.57673166064953</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T17" t="n">
-        <v>9.331635451211989</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1705381692968495</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.140574560338541</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H18" t="n">
-        <v>11.0155490432696</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I18" t="n">
-        <v>39.26978201165591</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J18" t="n">
-        <v>107.7592833519847</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K18" t="n">
-        <v>184.177778894667</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L18" t="n">
         <v>225.1508671422956</v>
@@ -32332,22 +32332,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>217.7084120482866</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q18" t="n">
-        <v>145.5933421232145</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R18" t="n">
-        <v>70.81567314101927</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S18" t="n">
-        <v>21.18567220628824</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T18" t="n">
-        <v>4.597315881364556</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07503780002227248</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9562193970051328</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H19" t="n">
-        <v>8.50165972973655</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I19" t="n">
-        <v>28.75612513902709</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J19" t="n">
-        <v>67.60471136826288</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K19" t="n">
-        <v>111.0953081247781</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L19" t="n">
-        <v>142.1637456238359</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M19" t="n">
-        <v>149.8917369323591</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N19" t="n">
-        <v>146.3276464526128</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O19" t="n">
-        <v>135.157265314871</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P19" t="n">
-        <v>115.6503896159662</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q19" t="n">
-        <v>80.07033514376617</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R19" t="n">
-        <v>42.99510125079442</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S19" t="n">
-        <v>16.66429621871672</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T19" t="n">
-        <v>4.085664696294657</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05215742165482549</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.131727116210619</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H20" t="n">
-        <v>21.83155032889201</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I20" t="n">
-        <v>82.18340964770998</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J20" t="n">
-        <v>180.9276743294812</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K20" t="n">
-        <v>271.1636831586767</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L20" t="n">
-        <v>336.4025268914075</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M20" t="n">
-        <v>374.3126289943181</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N20" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>359.1720371514322</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P20" t="n">
-        <v>306.5450239699825</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q20" t="n">
-        <v>230.2025466206896</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R20" t="n">
-        <v>133.9071034636654</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S20" t="n">
-        <v>48.57673166064953</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T20" t="n">
-        <v>9.331635451211989</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1705381692968495</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.140574560338541</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H21" t="n">
-        <v>11.0155490432696</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I21" t="n">
-        <v>39.26978201165591</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J21" t="n">
-        <v>107.7592833519847</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K21" t="n">
-        <v>184.177778894667</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L21" t="n">
         <v>225.1508671422956</v>
@@ -32569,22 +32569,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>217.7084120482866</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q21" t="n">
-        <v>145.5933421232145</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R21" t="n">
-        <v>70.81567314101927</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S21" t="n">
-        <v>21.18567220628824</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T21" t="n">
-        <v>4.597315881364556</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07503780002227248</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9562193970051328</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H22" t="n">
-        <v>8.50165972973655</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I22" t="n">
-        <v>28.75612513902709</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J22" t="n">
-        <v>67.60471136826288</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K22" t="n">
-        <v>111.0953081247781</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L22" t="n">
-        <v>142.1637456238359</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M22" t="n">
-        <v>149.8917369323591</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N22" t="n">
-        <v>146.3276464526128</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O22" t="n">
-        <v>135.157265314871</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P22" t="n">
-        <v>115.6503896159662</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q22" t="n">
-        <v>80.07033514376617</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R22" t="n">
-        <v>42.99510125079442</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S22" t="n">
-        <v>16.66429621871672</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T22" t="n">
-        <v>4.085664696294657</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05215742165482549</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.131727116210619</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H23" t="n">
-        <v>21.83155032889201</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I23" t="n">
-        <v>82.18340964770998</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J23" t="n">
-        <v>180.9276743294812</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K23" t="n">
-        <v>271.1636831586767</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L23" t="n">
-        <v>336.4025268914075</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M23" t="n">
-        <v>374.3126289943181</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N23" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O23" t="n">
-        <v>359.1720371514322</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P23" t="n">
-        <v>306.5450239699825</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q23" t="n">
-        <v>230.2025466206896</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R23" t="n">
-        <v>133.9071034636654</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S23" t="n">
-        <v>48.57673166064953</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T23" t="n">
-        <v>9.331635451211989</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1705381692968495</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.140574560338541</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H24" t="n">
-        <v>11.0155490432696</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I24" t="n">
-        <v>39.26978201165591</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J24" t="n">
-        <v>107.7592833519847</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K24" t="n">
-        <v>184.177778894667</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L24" t="n">
         <v>225.1508671422956</v>
@@ -32806,22 +32806,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>217.7084120482866</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q24" t="n">
-        <v>145.5933421232145</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R24" t="n">
-        <v>70.81567314101927</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S24" t="n">
-        <v>21.18567220628824</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T24" t="n">
-        <v>4.597315881364556</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07503780002227248</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9562193970051328</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H25" t="n">
-        <v>8.50165972973655</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I25" t="n">
-        <v>28.75612513902709</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J25" t="n">
-        <v>67.60471136826288</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K25" t="n">
-        <v>111.0953081247781</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L25" t="n">
-        <v>142.1637456238359</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M25" t="n">
-        <v>149.8917369323591</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N25" t="n">
-        <v>146.3276464526128</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O25" t="n">
-        <v>135.157265314871</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P25" t="n">
-        <v>115.6503896159662</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q25" t="n">
-        <v>80.07033514376617</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R25" t="n">
-        <v>42.99510125079442</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S25" t="n">
-        <v>16.66429621871672</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T25" t="n">
-        <v>4.085664696294657</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05215742165482549</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.131727116210619</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H26" t="n">
-        <v>21.83155032889201</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I26" t="n">
-        <v>82.18340964770998</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J26" t="n">
-        <v>180.9276743294812</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K26" t="n">
-        <v>271.1636831586767</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L26" t="n">
-        <v>336.4025268914075</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M26" t="n">
-        <v>374.3126289943181</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N26" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>359.1720371514322</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P26" t="n">
-        <v>306.5450239699825</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q26" t="n">
-        <v>230.2025466206896</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R26" t="n">
-        <v>133.9071034636654</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S26" t="n">
-        <v>48.57673166064953</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T26" t="n">
-        <v>9.331635451211989</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1705381692968495</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.140574560338541</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H27" t="n">
-        <v>11.0155490432696</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I27" t="n">
-        <v>39.26978201165591</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J27" t="n">
-        <v>107.7592833519847</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K27" t="n">
-        <v>184.177778894667</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L27" t="n">
         <v>225.1508671422956</v>
@@ -33043,22 +33043,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>217.7084120482866</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q27" t="n">
-        <v>145.5933421232145</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R27" t="n">
-        <v>70.81567314101927</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S27" t="n">
-        <v>21.18567220628824</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T27" t="n">
-        <v>4.597315881364556</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07503780002227248</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9562193970051328</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H28" t="n">
-        <v>8.50165972973655</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I28" t="n">
-        <v>28.75612513902709</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J28" t="n">
-        <v>67.60471136826288</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K28" t="n">
-        <v>111.0953081247781</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L28" t="n">
-        <v>142.1637456238359</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M28" t="n">
-        <v>149.8917369323591</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N28" t="n">
-        <v>146.3276464526128</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O28" t="n">
-        <v>135.157265314871</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P28" t="n">
-        <v>115.6503896159662</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q28" t="n">
-        <v>80.07033514376617</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R28" t="n">
-        <v>42.99510125079442</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S28" t="n">
-        <v>16.66429621871672</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T28" t="n">
-        <v>4.085664696294657</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05215742165482549</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.131727116210619</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H29" t="n">
-        <v>21.83155032889201</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I29" t="n">
-        <v>82.18340964770998</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J29" t="n">
-        <v>180.9276743294812</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K29" t="n">
-        <v>271.1636831586767</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L29" t="n">
-        <v>336.4025268914075</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M29" t="n">
-        <v>374.3126289943181</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N29" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O29" t="n">
-        <v>359.1720371514322</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P29" t="n">
-        <v>306.5450239699825</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q29" t="n">
-        <v>230.2025466206896</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R29" t="n">
-        <v>133.9071034636654</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S29" t="n">
-        <v>48.57673166064953</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T29" t="n">
-        <v>9.331635451211989</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1705381692968495</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.140574560338541</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H30" t="n">
-        <v>11.0155490432696</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I30" t="n">
-        <v>39.26978201165591</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J30" t="n">
-        <v>107.7592833519847</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K30" t="n">
-        <v>184.177778894667</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L30" t="n">
         <v>225.1508671422956</v>
@@ -33280,22 +33280,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>217.7084120482866</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q30" t="n">
-        <v>145.5933421232145</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R30" t="n">
-        <v>70.81567314101927</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S30" t="n">
-        <v>21.18567220628824</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T30" t="n">
-        <v>4.597315881364556</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07503780002227248</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9562193970051328</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H31" t="n">
-        <v>8.50165972973655</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I31" t="n">
-        <v>28.75612513902709</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J31" t="n">
-        <v>67.60471136826288</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K31" t="n">
-        <v>111.0953081247781</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L31" t="n">
-        <v>142.1637456238359</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M31" t="n">
-        <v>149.8917369323591</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N31" t="n">
-        <v>146.3276464526128</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O31" t="n">
-        <v>135.157265314871</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P31" t="n">
-        <v>115.6503896159662</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q31" t="n">
-        <v>80.07033514376617</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R31" t="n">
-        <v>42.99510125079442</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S31" t="n">
-        <v>16.66429621871672</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T31" t="n">
-        <v>4.085664696294657</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05215742165482549</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.131727116210619</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H32" t="n">
-        <v>21.83155032889201</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I32" t="n">
-        <v>82.18340964770998</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J32" t="n">
-        <v>180.9276743294812</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K32" t="n">
-        <v>271.1636831586767</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L32" t="n">
-        <v>336.4025268914075</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M32" t="n">
-        <v>374.3126289943181</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N32" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>359.1720371514322</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P32" t="n">
-        <v>306.5450239699825</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q32" t="n">
-        <v>230.2025466206896</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R32" t="n">
-        <v>133.9071034636654</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S32" t="n">
-        <v>48.57673166064953</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T32" t="n">
-        <v>9.331635451211989</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1705381692968495</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.140574560338541</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H33" t="n">
-        <v>11.0155490432696</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I33" t="n">
-        <v>39.26978201165591</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J33" t="n">
-        <v>107.7592833519847</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K33" t="n">
-        <v>184.177778894667</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L33" t="n">
         <v>225.1508671422956</v>
@@ -33517,22 +33517,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>217.7084120482866</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q33" t="n">
-        <v>145.5933421232145</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R33" t="n">
-        <v>70.81567314101927</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S33" t="n">
-        <v>21.18567220628824</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T33" t="n">
-        <v>4.597315881364556</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07503780002227248</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9562193970051328</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H34" t="n">
-        <v>8.50165972973655</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I34" t="n">
-        <v>28.75612513902709</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J34" t="n">
-        <v>67.60471136826288</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K34" t="n">
-        <v>111.0953081247781</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L34" t="n">
-        <v>142.1637456238359</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M34" t="n">
-        <v>149.8917369323591</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N34" t="n">
-        <v>146.3276464526128</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O34" t="n">
-        <v>135.157265314871</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P34" t="n">
-        <v>115.6503896159662</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q34" t="n">
-        <v>80.07033514376617</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R34" t="n">
-        <v>42.99510125079442</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S34" t="n">
-        <v>16.66429621871672</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T34" t="n">
-        <v>4.085664696294657</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U34" t="n">
-        <v>0.05215742165482549</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.131727116210619</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H35" t="n">
-        <v>21.83155032889201</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I35" t="n">
-        <v>82.18340964770998</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J35" t="n">
-        <v>180.9276743294812</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K35" t="n">
-        <v>271.1636831586767</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L35" t="n">
-        <v>336.4025268914075</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M35" t="n">
-        <v>374.3126289943181</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N35" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>359.1720371514322</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P35" t="n">
-        <v>306.5450239699825</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q35" t="n">
-        <v>230.2025466206896</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R35" t="n">
-        <v>133.9071034636654</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S35" t="n">
-        <v>48.57673166064953</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T35" t="n">
-        <v>9.331635451211989</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1705381692968495</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.140574560338541</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H36" t="n">
-        <v>11.0155490432696</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I36" t="n">
-        <v>39.26978201165591</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J36" t="n">
-        <v>107.7592833519847</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K36" t="n">
-        <v>184.177778894667</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L36" t="n">
         <v>225.1508671422956</v>
@@ -33754,22 +33754,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>217.7084120482866</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q36" t="n">
-        <v>145.5933421232145</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R36" t="n">
-        <v>70.81567314101927</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S36" t="n">
-        <v>21.18567220628824</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T36" t="n">
-        <v>4.597315881364556</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07503780002227248</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9562193970051328</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H37" t="n">
-        <v>8.50165972973655</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I37" t="n">
-        <v>28.75612513902709</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J37" t="n">
-        <v>67.60471136826288</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K37" t="n">
-        <v>111.0953081247781</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L37" t="n">
-        <v>142.1637456238359</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M37" t="n">
-        <v>149.8917369323591</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N37" t="n">
-        <v>146.3276464526128</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O37" t="n">
-        <v>135.157265314871</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P37" t="n">
-        <v>115.6503896159662</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q37" t="n">
-        <v>80.07033514376617</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R37" t="n">
-        <v>42.99510125079442</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S37" t="n">
-        <v>16.66429621871672</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T37" t="n">
-        <v>4.085664696294657</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05215742165482549</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.131727116210619</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H38" t="n">
-        <v>21.83155032889201</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I38" t="n">
-        <v>82.18340964770998</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J38" t="n">
-        <v>180.9276743294812</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K38" t="n">
-        <v>271.1636831586767</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L38" t="n">
-        <v>336.4025268914075</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M38" t="n">
-        <v>374.3126289943181</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N38" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>359.1720371514322</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P38" t="n">
-        <v>306.5450239699825</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q38" t="n">
-        <v>230.2025466206896</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R38" t="n">
-        <v>133.9071034636654</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S38" t="n">
-        <v>48.57673166064953</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T38" t="n">
-        <v>9.331635451211989</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1705381692968495</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.140574560338541</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H39" t="n">
-        <v>11.0155490432696</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I39" t="n">
-        <v>39.26978201165591</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J39" t="n">
-        <v>107.7592833519847</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K39" t="n">
-        <v>184.177778894667</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L39" t="n">
         <v>225.1508671422956</v>
@@ -33991,22 +33991,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>217.7084120482866</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q39" t="n">
-        <v>145.5933421232145</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R39" t="n">
-        <v>70.81567314101927</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S39" t="n">
-        <v>21.18567220628824</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T39" t="n">
-        <v>4.597315881364556</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07503780002227248</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9562193970051328</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H40" t="n">
-        <v>8.50165972973655</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I40" t="n">
-        <v>28.75612513902709</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J40" t="n">
-        <v>67.60471136826288</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K40" t="n">
-        <v>111.0953081247781</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L40" t="n">
-        <v>142.1637456238359</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M40" t="n">
-        <v>149.8917369323591</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N40" t="n">
-        <v>146.3276464526128</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O40" t="n">
-        <v>135.157265314871</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P40" t="n">
-        <v>115.6503896159662</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q40" t="n">
-        <v>80.07033514376617</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R40" t="n">
-        <v>42.99510125079442</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S40" t="n">
-        <v>16.66429621871672</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T40" t="n">
-        <v>4.085664696294657</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05215742165482549</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.131727116210619</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H41" t="n">
-        <v>21.83155032889201</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I41" t="n">
-        <v>82.18340964770998</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J41" t="n">
-        <v>180.9276743294812</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K41" t="n">
-        <v>271.1636831586767</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L41" t="n">
-        <v>336.4025268914075</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M41" t="n">
-        <v>374.3126289943181</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N41" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>359.1720371514322</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P41" t="n">
-        <v>306.5450239699825</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q41" t="n">
-        <v>230.2025466206896</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R41" t="n">
-        <v>133.9071034636654</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S41" t="n">
-        <v>48.57673166064953</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T41" t="n">
-        <v>9.331635451211989</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1705381692968495</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.140574560338541</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H42" t="n">
-        <v>11.0155490432696</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I42" t="n">
-        <v>39.26978201165591</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J42" t="n">
-        <v>107.7592833519847</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K42" t="n">
-        <v>184.177778894667</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L42" t="n">
         <v>225.1508671422956</v>
@@ -34228,22 +34228,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>217.7084120482866</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q42" t="n">
-        <v>145.5933421232145</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R42" t="n">
-        <v>70.81567314101927</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S42" t="n">
-        <v>21.18567220628824</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T42" t="n">
-        <v>4.597315881364556</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07503780002227248</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9562193970051328</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H43" t="n">
-        <v>8.50165972973655</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I43" t="n">
-        <v>28.75612513902709</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J43" t="n">
-        <v>67.60471136826288</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K43" t="n">
-        <v>111.0953081247781</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L43" t="n">
-        <v>142.1637456238359</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M43" t="n">
-        <v>149.8917369323591</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N43" t="n">
-        <v>146.3276464526128</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O43" t="n">
-        <v>135.157265314871</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P43" t="n">
-        <v>115.6503896159662</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q43" t="n">
-        <v>80.07033514376617</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R43" t="n">
-        <v>42.99510125079442</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S43" t="n">
-        <v>16.66429621871672</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T43" t="n">
-        <v>4.085664696294657</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05215742165482549</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.131727116210619</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H44" t="n">
-        <v>21.83155032889201</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I44" t="n">
-        <v>82.18340964770998</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J44" t="n">
-        <v>180.9276743294812</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K44" t="n">
-        <v>271.1636831586767</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L44" t="n">
-        <v>336.4025268914075</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M44" t="n">
-        <v>374.3126289943181</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N44" t="n">
         <v>372.7962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>359.1720371514322</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P44" t="n">
-        <v>306.5450239699825</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q44" t="n">
-        <v>230.2025466206896</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R44" t="n">
-        <v>133.9071034636654</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S44" t="n">
-        <v>48.57673166064953</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T44" t="n">
-        <v>9.331635451211989</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1705381692968495</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.140574560338541</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H45" t="n">
-        <v>11.0155490432696</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I45" t="n">
-        <v>39.26978201165591</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J45" t="n">
-        <v>107.7592833519847</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K45" t="n">
-        <v>184.177778894667</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L45" t="n">
         <v>225.1508671422956</v>
@@ -34465,22 +34465,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>217.7084120482866</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q45" t="n">
-        <v>145.5933421232145</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R45" t="n">
-        <v>70.81567314101927</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S45" t="n">
-        <v>21.18567220628824</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T45" t="n">
-        <v>4.597315881364556</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07503780002227248</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9562193970051328</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H46" t="n">
-        <v>8.50165972973655</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I46" t="n">
-        <v>28.75612513902709</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J46" t="n">
-        <v>67.60471136826288</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K46" t="n">
-        <v>111.0953081247781</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L46" t="n">
-        <v>142.1637456238359</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M46" t="n">
-        <v>149.8917369323591</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N46" t="n">
-        <v>146.3276464526128</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O46" t="n">
-        <v>135.157265314871</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P46" t="n">
-        <v>115.6503896159662</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q46" t="n">
-        <v>80.07033514376617</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R46" t="n">
-        <v>42.99510125079442</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S46" t="n">
-        <v>16.66429621871672</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T46" t="n">
-        <v>4.085664696294657</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05215742165482549</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
